--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -13,31 +13,23 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="11" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId2"/>
+    <sheet name="Tags" sheetId="4" r:id="rId3"/>
+    <sheet name="Features" sheetId="2" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="12" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1">#REF!</definedName>
-    <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
-    <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart1">Scenarios!#REF!</definedName>
+    <definedName name="Chart51">Scenarios!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>Duration</t>
   </si>
@@ -96,6 +88,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -111,43 +106,109 @@
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>0.013 s</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>FAILED &amp; SKIPPED TAGS</t>
   </si>
   <si>
     <t>TAG NAME</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:11 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:09 PM</t>
+  </si>
+  <si>
+    <t>0.253 s</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0.015 s</t>
+  </si>
+  <si>
+    <t>0.023 s</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>STACKTRACE</t>
   </si>
   <si>
     <t>STEP / HOOK TEXT</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>SCENARIOS</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -156,67 +217,61 @@
     <t>FEATURE</t>
   </si>
   <si>
-    <t>STEPS</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>SCENARIOS</t>
-  </si>
-  <si>
     <t>PASS %</t>
   </si>
   <si>
     <t>AUTHOR NAME</t>
   </si>
   <si>
-    <t>author</t>
+    <t>device</t>
   </si>
   <si>
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>device</t>
+    <t>Sept 18, 2025 1:46:45 pm</t>
   </si>
   <si>
-    <t>Sept 17, 2025 9:42:59 am</t>
+    <t>Sept 18, 2025 1:45:16 pm</t>
   </si>
   <si>
-    <t>Sept 17, 2025 9:40:58 am</t>
+    <t>Sept 18, 2025 1:46:41 pm</t>
   </si>
   <si>
-    <t>Sept 17, 2025 9:42:54 am</t>
+    <t>1 m 25.177 s</t>
   </si>
   <si>
-    <t>1 m 56.465 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>75%</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</t>
-  </si>
-  <si>
-    <t>1 m 55.745 s</t>
+    <t>@TC_UI_Zlaata_ADM_08</t>
   </si>
   <si>
     <t>Home Page Banner upload verification admin panel</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADM_07</t>
+    <t>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</t>
   </si>
   <si>
-    <t>1 m 55.751 s</t>
+    <t>1 m 22.794 s</t>
+  </si>
+  <si>
+    <t>1 m 22.801 s</t>
+  </si>
+  <si>
+    <t>And verify Categories from "CatagoriesTest5.xlsx" should be visible in user app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: ❌ No products found in Catagories: Automation Test
+	at org.junit.Assert.fail(Assert.java:89)
+	at org.junit.Assert.assertTrue(Assert.java:42)
+	at pages.AdminPanelPage.verifyCatagoriesInUserApp(AdminPanelPage.java:1419)
+	at stepDef.AdminPanelStepDef.verify_categories_from_should_be_visible_in_user_app(AdminPanelStepDef.java:188)
+	at ✽.verify Categories from "CatagoriesTest5.xlsx" should be visible in user app(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:87)
+</t>
   </si>
 </sst>
 </file>
@@ -224,7 +279,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +290,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -284,9 +363,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FF51FF21"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +389,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FF51FF21"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +402,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -345,11 +435,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -374,6 +459,43 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -441,9 +563,7 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -471,173 +591,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,230 +781,26 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Tags with</a:t>
             </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Failed &amp; Skipped Scenarios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Devices</a:t>
-            </a:r>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -924,10 +814,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.9880212949228394E-2"/>
+          <c:y val="0.11750877449771498"/>
+          <c:w val="0.95813725490196078"/>
+          <c:h val="0.84734403472530151"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -939,11 +829,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$D$21</c:f>
+              <c:f>'DB Data'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PASSED</c:v>
+                  <c:v>Scenario Passed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -981,30 +871,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$B$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1013,11 +897,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$F$21</c:f>
+              <c:f>'DB Data'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
+                  <c:v>Scenario Failed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1055,30 +939,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$D$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,11 +965,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Devices!$E$21</c:f>
+              <c:f>'DB Data'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FAILED</c:v>
+                  <c:v>Scenario Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1129,30 +1007,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Devices!$B$22</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>device</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Devices!$E$22</c:f>
+              <c:f>'DB Data'!$C$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-DB0E-4C20-A461-10AEB88517DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1166,11 +1043,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46151168"/>
+        <c:axId val="46117248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1057,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,800 +1065,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Scenarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Steps</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Scenarios</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.3309046751669701E-2"/>
-          <c:y val="0.10500003204542271"/>
-          <c:w val="0.95333333333333337"/>
-          <c:h val="0.85236429602767994"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="3175">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$H$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$J$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scenarios!$I$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Scenarios!$I$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97185152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97201536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1997,554 +1093,6 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Steps</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.2858134693485639E-2"/>
-          <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410535"/>
-          <c:h val="0.78524645049290098"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-      <c:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tags</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$D$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$F$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tags!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tags!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tags!$E$22</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
                   <a:t>Scenarios</a:t>
                 </a:r>
               </a:p>
@@ -2557,16 +1105,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46151168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2575,8 +1120,10 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -2587,7 +1134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2631,10 +1178,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
+          <c:x val="3.3309046751669701E-2"/>
+          <c:y val="0.10919339164237124"/>
+          <c:w val="0.95333333333333337"/>
+          <c:h val="0.84804664723032075"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2699,17 +1246,12 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000000-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2776,7 +1318,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000001-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2838,12 +1380,17 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$G$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000002-5768-4C55-9686-6251C2C8BD33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2857,11 +1404,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
+        <c:axId val="46512000"/>
+        <c:axId val="46513536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97540352"/>
+        <c:axId val="46512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +1418,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
+        <c:crossAx val="46513536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2879,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97550336"/>
+        <c:axId val="46513536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2912,7 +1459,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
+        <c:crossAx val="46512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2943,7 +1490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3009,7 +1556,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000001-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3034,7 +1581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000003-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3059,7 +1606,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
+                <c16:uniqueId val="{00000005-D2BC-4951-98B3-E41274AF2CA1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3089,12 +1636,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
+              <c16:uniqueId val="{00000006-D2BC-4951-98B3-E41274AF2CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3110,6 +1663,2793 @@
         <c:firstSliceAng val="0"/>
         <c:holeSize val="40"/>
       </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUTHOR NAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F2-4DDE-822F-16B38F6808E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Devices!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Devices!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>device</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Devices!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA3-4CA3-AB56-81BA9F622F8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46589440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46589440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.587826839649571E-2"/>
+          <c:y val="0.10654873856176561"/>
+          <c:w val="0.89369296921336749"/>
+          <c:h val="0.85018673119905308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9F7-4BBB-94B0-AEDC4FA75EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDCE-4CDA-BBB7-BD88937029B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46193280"/>
+        <c:axId val="46285184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46193280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46285184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46285184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46193280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0031919744642044E-2"/>
+          <c:y val="0.10668158781898149"/>
+          <c:w val="0.92990424076607392"/>
+          <c:h val="0.8499999379835731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97A8-4822-B247-3E0E0F2799A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="46328448"/>
+        <c:axId val="46408064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46328448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46408064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46408064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="46328448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9362468167315514E-3"/>
+          <c:y val="6.4713026203216312E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3672686824927558E-2"/>
+          <c:y val="0.11902669624860428"/>
+          <c:w val="0.92151704085316477"/>
+          <c:h val="0.85596714084772552"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C5E1-437A-A52D-DCB97CB8ED06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Features Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Features Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Features Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5E1-437A-A52D-DCB97CB8ED06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9107001159738751E-3"/>
+          <c:y val="3.7140215132502832E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6571751205517912E-2"/>
+          <c:y val="8.4536101166436714E-2"/>
+          <c:w val="0.92725874381981321"/>
+          <c:h val="0.88851560210722469"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-86A0-4454-A31A-15C1830346B8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-86A0-4454-A31A-15C1830346B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.0163677357506801E-2"/>
+          <c:y val="5.5749128919860627E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6917458262785006E-2"/>
+          <c:y val="0.10406650388213669"/>
+          <c:w val="0.93302459414795369"/>
+          <c:h val="0.87775832898936412"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2833-4D5B-98DA-2F8086DE2D67}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2833-4D5B-98DA-2F8086DE2D67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenarios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3278738246891114E-2"/>
+          <c:y val="0.10500003204542271"/>
+          <c:w val="0.953375796178344"/>
+          <c:h val="0.85236429602767994"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$H$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$J$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scenarios!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Scenarios!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$I$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E13-4772-A58C-E37B2BA89DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="89325952"/>
+        <c:axId val="44310528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89325952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="44310528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44310528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="89325952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2858134693485639E-2"/>
+          <c:y val="0.17364592842131704"/>
+          <c:w val="0.96715927750410535"/>
+          <c:h val="0.78524645049290098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-012F-4AE0-9B30-C14C76CB6C4B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenarios Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenarios Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenarios Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-012F-4AE0-9B30-C14C76CB6C4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3156,15 +4496,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Authors</a:t>
+              <a:t>Tags</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3174,10 +4513,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8395445134575568E-2"/>
+          <c:y val="0.10887596899224808"/>
+          <c:w val="0.9602173913043478"/>
+          <c:h val="0.8484883720930233"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3189,7 +4528,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$D$21</c:f>
+              <c:f>Tags!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3224,37 +4563,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000000-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3263,7 +4595,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$F$21</c:f>
+              <c:f>Tags!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3298,37 +4630,30 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$F$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000001-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3337,7 +4662,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Authors!$E$21</c:f>
+              <c:f>Tags!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3372,37 +4697,35 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Authors!$B$22</c:f>
+              <c:f>Tags!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>author</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Authors!$E$22</c:f>
+              <c:f>Tags!$E$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
+              <c16:uniqueId val="{00000002-2604-4208-BEA8-EA9F96270641}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3416,11 +4739,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="46589440"/>
+        <c:axId val="46590976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="46589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +4753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="46590976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3438,7 +4761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="46590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +4779,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3464,14 +4787,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="46589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3506,672 +4828,1681 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57148</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="9" name="Group 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="190498" y="0"/>
+          <a:ext cx="12068177" cy="3438525"/>
+          <a:chOff x="161923" y="0"/>
+          <a:chExt cx="12068177" cy="3438525"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="42" name="Group 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="161923" y="0"/>
+            <a:ext cx="12068177" cy="3438525"/>
+            <a:chOff x="171448" y="19050"/>
+            <a:chExt cx="12068177" cy="3438525"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="13" name="Group 12"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8477248" y="133350"/>
+              <a:ext cx="3762377" cy="685800"/>
+              <a:chOff x="8477248" y="133350"/>
+              <a:chExt cx="3762377" cy="685800"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477248" y="133350"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Start Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8477249" y="495300"/>
+                <a:ext cx="3749040" cy="320040"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>End Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="TextBox 6"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9563100" y="133351"/>
+                <a:ext cx="2676525" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="TextBox 7"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9572625" y="495300"/>
+                <a:ext cx="2667000" cy="323850"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>Jan 06, 2023 2:45:09 PM</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="2" name="Group 100"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171448" y="19050"/>
+              <a:ext cx="12054842" cy="3438525"/>
+              <a:chOff x="171448" y="19050"/>
+              <a:chExt cx="12054842" cy="3438525"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="171448" y="19050"/>
+                <a:ext cx="12054842" cy="3438525"/>
+                <a:chOff x="152398" y="27696"/>
+                <a:chExt cx="12054842" cy="3195586"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="16" name="Group 15"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="152398" y="656192"/>
+                  <a:ext cx="3749040" cy="2563550"/>
+                  <a:chOff x="152398" y="656192"/>
+                  <a:chExt cx="3749040" cy="2563550"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="31" name="Rectangle 30"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="152398" y="815526"/>
+                    <a:ext cx="3749040" cy="2381198"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="32" name="Group 31"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="3621406" cy="2563550"/>
+                    <a:chOff x="247650" y="656192"/>
+                    <a:chExt cx="3621406" cy="2563550"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="33" name="Group 32"/>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="2771776" y="859785"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                      <a:chOff x="2771776" y="859785"/>
+                      <a:chExt cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="2771776" y="859785"/>
+                        <a:ext cx="1097280" cy="764816"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="roundRect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="3175"/>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="dk1"/>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="lt1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="dk1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>PASSED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>FAILED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>SKIPPED</a:t>
+                        </a:r>
+                      </a:p>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:r>
+                          <a:rPr lang="en-US" sz="1100">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:t>TOTAL</a:t>
+                        </a:r>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="36" name="TextBox 35"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="868694"/>
+                        <a:ext cx="485775" cy="247651"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="27F959"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="37" name="TextBox 36"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3381375" y="1027977"/>
+                        <a:ext cx="485775" cy="251635"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FF0000"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>2</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                  <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="38" name="TextBox 37"/>
+                      <xdr:cNvSpPr txBox="1"/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="3371850" y="1187314"/>
+                        <a:ext cx="495300" cy="239006"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln w="9525" cmpd="sng">
+                        <a:noFill/>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:lnRef>
+                      <a:fillRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:scrgbClr r="0" g="0" b="0"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="dk1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="ctr"/>
+                        <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                          <a:rPr lang="en-US" sz="1100" b="0">
+                            <a:solidFill>
+                              <a:srgbClr val="FFFF00"/>
+                            </a:solidFill>
+                          </a:rPr>
+                          <a:pPr algn="ctr"/>
+                          <a:t>1</a:t>
+                        </a:fld>
+                        <a:endParaRPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:endParaRPr>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:graphicFrame macro="">
+                  <xdr:nvGraphicFramePr>
+                    <xdr:cNvPr id="34" name="FeatureDough"/>
+                    <xdr:cNvGraphicFramePr>
+                      <a:graphicFrameLocks/>
+                    </xdr:cNvGraphicFramePr>
+                  </xdr:nvGraphicFramePr>
+                  <xdr:xfrm>
+                    <a:off x="247650" y="656192"/>
+                    <a:ext cx="2562225" cy="2563550"/>
+                  </xdr:xfrm>
+                  <a:graphic>
+                    <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                      <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                    </a:graphicData>
+                  </a:graphic>
+                </xdr:graphicFrame>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="17" name="Group 16"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="3981450" y="27696"/>
+                  <a:ext cx="4391026" cy="3177881"/>
+                  <a:chOff x="3981450" y="27696"/>
+                  <a:chExt cx="4391026" cy="3177881"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="25" name="Rectangle 24"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3981450" y="133921"/>
+                    <a:ext cx="4391026" cy="3059265"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7143750" y="183252"/>
+                    <a:ext cx="1188720" cy="849796"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="27" name="TextBox 26"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="213640"/>
+                    <a:ext cx="542925" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="28" name="TextBox 27"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7772400" y="394614"/>
+                    <a:ext cx="542926" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$F$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="29" name="TextBox 28"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="7781924" y="557888"/>
+                    <a:ext cx="533401" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>2</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="30" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="4019551" y="27696"/>
+                  <a:ext cx="3276600" cy="3177881"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="18" name="Group 17"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="8458200" y="682747"/>
+                  <a:ext cx="3749040" cy="2540535"/>
+                  <a:chOff x="8458200" y="682747"/>
+                  <a:chExt cx="3749040" cy="2540535"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="19" name="Rectangle 18"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="8458200" y="815526"/>
+                    <a:ext cx="3749040" cy="2379428"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="6350"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11077576" y="856008"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="3175"/>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="dk1"/>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="lt1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="dk1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:endParaRPr lang="en-US" sz="1300" b="1" u="none">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>PASSED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>FAILED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>SKIPPED</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>TOTAL</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$2">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="21" name="TextBox 20"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="859839"/>
+                    <a:ext cx="476250" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="51FF21"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>6</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$3">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="TextBox 21"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11658600" y="1023110"/>
+                    <a:ext cx="485776" cy="247651"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="'DB Data'!$H$4">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="TextBox 22"/>
+                  <xdr:cNvSpPr txBox="1"/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="11668125" y="1177529"/>
+                    <a:ext cx="476250" cy="257174"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln w="9525" cmpd="sng">
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:scrgbClr r="0" g="0" b="0"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                        <a:latin typeface="Calibri"/>
+                      </a:rPr>
+                      <a:pPr algn="ctr"/>
+                      <a:t>1</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1200" b="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="24" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="8572501" y="682747"/>
+                  <a:ext cx="2543174" cy="2540535"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="'DB Data'!$F$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="TextBox 38"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7791450" y="781050"/>
+                <a:ext cx="542925" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C1C65169-A7E7-4F44-8F1B-A4A10551DED6}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>6</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$D$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="40" name="TextBox 39"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3390900" y="1438275"/>
+                <a:ext cx="495299" cy="257176"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{C751D109-05C5-4D27-8561-41C7DB1DFED0}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>4</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1100" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="'DB Data'!$H$5">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="41" name="TextBox 40"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11687174" y="1428750"/>
+                <a:ext cx="476251" cy="276725"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:fld id="{9404FC27-F618-4129-9790-CCC5E3B452F7}" type="TxLink">
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:pPr algn="ctr"/>
+                  <a:t>8</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="133349"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="lt1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
       </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+      <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
+            <a:off x="990601" y="114300"/>
+            <a:ext cx="2924174" cy="676275"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="6350"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+              <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>0.253 s</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4182,22 +6513,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34572</cdr:x>
+      <cdr:y>0.37983</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.72119</cdr:x>
+      <cdr:y>0.71478</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885825" y="1047749"/>
+          <a:ext cx="962024" cy="923925"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4323,7 +6654,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{790B2992-122F-4DED-8027-8C90CA641799}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4331,7 +6662,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4349,22 +6680,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.3343</cdr:x>
+      <cdr:y>0.34819</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.7064</cdr:x>
+      <cdr:y>0.70474</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1095367" y="1190625"/>
+          <a:ext cx="1219223" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4490,17 +6821,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{55E37DD8-520B-4F7A-9381-E422E7073C87}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4516,22 +6847,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.33708</cdr:x>
+      <cdr:y>0.36934</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70786</cdr:x>
+      <cdr:y>0.71429</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="857253" y="1009650"/>
+          <a:ext cx="942958" cy="942975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4657,7 +6988,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{0C07208B-2D34-4675-9C99-827455C82BF1}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4665,7 +6996,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4690,16 +7021,14 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4748,15 +7077,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4765,8 +7094,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4801,6 +7130,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4810,13 +7161,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1514476</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104553</xdr:rowOff>
+      <xdr:rowOff>85503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$F$2">
       <xdr:nvSpPr>
@@ -4825,7 +7176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="219075"/>
+          <a:off x="971550" y="200025"/>
           <a:ext cx="638176" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4855,7 +7206,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4863,11 +7214,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="404284"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4882,22 +7373,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32161</cdr:x>
+      <cdr:y>0.41018</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.68844</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="609603" y="914412"/>
+          <a:ext cx="695317" cy="685798"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5023,17 +7514,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{BB53D87E-07A1-498D-A732-07528C1BCE6E}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5052,20 +7543,18 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5087,22 +7576,20 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5153,13 +7640,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5168,8 +7655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5204,6 +7691,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5213,22 +7722,22 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5258,19 +7767,156 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
               <a:solidFill>
-                <a:srgbClr val="51FF21"/>
+                <a:srgbClr val="27F959"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
             <a:t>1</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
-              <a:srgbClr val="51FF21"/>
+              <a:srgbClr val="27F959"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="413808"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="599019"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5285,22 +7931,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.33503</cdr:x>
+      <cdr:y>0.4149</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="628650" y="904875"/>
+          <a:ext cx="695325" cy="704850"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5426,17 +8072,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{CE425BBE-7C02-4C07-B111-60BA1CB56900}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5446,29 +8092,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Scenarios"/>
-      <sheetName val="Tags"/>
-      <sheetName val="Features"/>
-      <sheetName val="Exceptions"/>
-      <sheetName val="DB Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5758,7 +8381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B19:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5772,8 +8395,102 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="F369" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="FE47" scenarios="true" objects="true"/>
+  <mergeCells count="8">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5782,6 +8499,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5792,90 +8510,92 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875"/>
     <col min="7" max="10" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H22" s="58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
+      <c r="H22" s="55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5885,6 +8605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B20:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -5895,92 +8616,93 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.28515625"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375"/>
     <col min="3" max="7" customWidth="true" width="12.7109375"/>
     <col min="8" max="8" customWidth="true" width="60.7109375"/>
     <col min="9" max="9" customWidth="true" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="B21" s="41"/>
+      <c r="C21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s" s="54">
-        <v>58</v>
-      </c>
-      <c r="C22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="58" t="n">
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>54</v>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="36" t="s">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="35" t="s">
-        <v>22</v>
+      <c r="I26" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>29</v>
+      <c r="B27" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5998,6 +8720,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
@@ -6011,107 +8734,108 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="H21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="57" t="n">
+      <c r="B22" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="58" t="n">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="57" t="n">
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="K22" s="58" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
+      <c r="K22" s="55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6119,14 +8843,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="9FD5" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6135,7 +8909,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6163,25 +8937,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,67 +8959,70 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <f>SUM(F2:F4)</f>
         <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <f>SUM(H2:H4)</f>
         <v>4.0</v>
       </c>
     </row>
@@ -6258,32 +9031,118 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="H20" t="s" s="49">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="50"/>
+      <c r="P20" t="s" s="49">
+        <v>74</v>
+      </c>
+      <c r="Q20" t="s" s="49">
+        <v>40</v>
+      </c>
+      <c r="R20" s="50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S20" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -229,16 +229,16 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Sept 18, 2025 1:46:45 pm</t>
+    <t>Sept 18, 2025 3:25:37 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 1:45:16 pm</t>
+    <t>Sept 18, 2025 3:23:43 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 1:46:41 pm</t>
+    <t>Sept 18, 2025 3:25:33 pm</t>
   </si>
   <si>
-    <t>1 m 25.177 s</t>
+    <t>1 m 49.290 s</t>
   </si>
   <si>
     <t>0%</t>
@@ -256,19 +256,19 @@
     <t>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</t>
   </si>
   <si>
-    <t>1 m 22.794 s</t>
+    <t>1 m 48.509 s</t>
   </si>
   <si>
-    <t>1 m 22.801 s</t>
+    <t>1 m 48.515 s</t>
   </si>
   <si>
     <t>And verify Categories from "CatagoriesTest5.xlsx" should be visible in user app</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError: ❌ No products found in Catagories: Automation Test
+    <t xml:space="preserve">java.lang.AssertionError: ❌ No products found in Category: Auto444
 	at org.junit.Assert.fail(Assert.java:89)
 	at org.junit.Assert.assertTrue(Assert.java:42)
-	at pages.AdminPanelPage.verifyCatagoriesInUserApp(AdminPanelPage.java:1419)
+	at pages.AdminPanelPage.verifyCatagoriesInUserApp(AdminPanelPage.java:1490)
 	at stepDef.AdminPanelStepDef.verify_categories_from_should_be_visible_in_user_app(AdminPanelStepDef.java:188)
 	at ✽.verify Categories from "CatagoriesTest5.xlsx" should be visible in user app(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:87)
 </t>
@@ -8482,7 +8482,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="FE47" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="BFE1" scenarios="true" objects="true"/>
   <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B61:C61"/>
@@ -8889,7 +8889,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="9FD5" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="DBE9" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>Duration</t>
   </si>
@@ -229,48 +229,112 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Sept 18, 2025 3:25:37 pm</t>
+    <t>Sept 20, 2025 5:46:11 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 3:23:43 pm</t>
+    <t>Sept 20, 2025 5:41:00 pm</t>
   </si>
   <si>
-    <t>Sept 18, 2025 3:25:33 pm</t>
+    <t>Sept 20, 2025 5:46:07 pm</t>
   </si>
   <si>
-    <t>1 m 49.290 s</t>
+    <t>5 m 7.108 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>75%</t>
+    <t>67%</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADM_08</t>
+    <t>@TC_UI_Zlaata_ASP_04</t>
   </si>
   <si>
-    <t>Home Page Banner upload verification admin panel</t>
+    <t>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</t>
+    <t>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</t>
   </si>
   <si>
-    <t>1 m 48.509 s</t>
+    <t>5 m 6.272 s</t>
   </si>
   <si>
-    <t>1 m 48.515 s</t>
+    <t>5 m 6.277 s</t>
   </si>
   <si>
-    <t>And verify Categories from "CatagoriesTest5.xlsx" should be visible in user app</t>
+    <t>Then I should see the same product appear first in the User Application Micro Page</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError: ❌ No products found in Category: Auto444
-	at org.junit.Assert.fail(Assert.java:89)
-	at org.junit.Assert.assertTrue(Assert.java:42)
-	at pages.AdminPanelPage.verifyCatagoriesInUserApp(AdminPanelPage.java:1490)
-	at stepDef.AdminPanelStepDef.verify_categories_from_should_be_visible_in_user_app(AdminPanelStepDef.java:188)
-	at ✽.verify Categories from "CatagoriesTest5.xlsx" should be visible in user app(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:87)
+    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=140.0.7339.129)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.8'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6f42af8d51a245b62f759c30c0cc94cf, findElements {value=//div[@id='cls_newproduct_sec_dev']/div[contains(@class,'product_list_cards_list')][1]//h2[@class='product_list_cards_heading'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.129, chrome: {chromedriverVersion: 140.0.7339.185 (eeea00e459e..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52687}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52687/devtoo..., se:cdpVersion: 140.0.7339.129, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6f42af8d51a245b62f759c30c0cc94cf
+	at java.base/jdk.internal.reflect.DirectConstructorHandleAccessor.newInstance(DirectConstructorHandleAccessor.java:62)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:502)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:486)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElements(ElementLocation.java:182)
+	at org.openqa.selenium.remote.ElementLocation.findElements(ElementLocation.java:103)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:380)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:374)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$8AV6NETA.findElements(Unknown Source)
+	at pages.AdminPanelSortingPage.lambda$3(AdminPanelSortingPage.java:723)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
+	at pages.AdminPanelSortingPage.verifyFirstProductInUserAppMicroPage(AdminPanelSortingPage.java:719)
+	at stepDef.AdminPanelSortingStepDef.i_should_see_the_same_product_appear_first_in_the_user_application_Micro_Page(AdminPanelSortingStepDef.java:65)
+	at ✽.I should see the same product appear first in the User Application Micro Page(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:38)
+</t>
+  </si>
+  <si>
+    <t>stepDef.Hooks.tearDown(io.cucumber.java.Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=140.0.7339.129)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.8'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6f42af8d51a245b62f759c30c0cc94cf, screenshot {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.129, chrome: {chromedriverVersion: 140.0.7339.185 (eeea00e459e..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52687}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52687/devtoo..., se:cdpVersion: 140.0.7339.129, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6f42af8d51a245b62f759c30c0cc94cf
+	at java.base/jdk.internal.reflect.DirectConstructorHandleAccessor.newInstance(DirectConstructorHandleAccessor.java:62)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:502)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:486)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$8AV6NETA.getScreenshotAs(Unknown Source)
+	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
+	at stepDef.Hooks.tearDown(Hooks.java:298)
 </t>
   </si>
 </sst>
@@ -875,7 +939,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -943,7 +1007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1011,7 +1075,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1238,7 +1302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1305,7 +1369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1372,7 +1436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2537,7 +2601,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2604,7 +2668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2671,7 +2735,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
+                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2900,7 +2964,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2911,7 +2975,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,7 +3036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3039,7 +3103,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4018,7 +4082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4029,7 +4093,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +4154,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4157,7 +4221,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4573,7 +4637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4640,7 +4704,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4707,7 +4771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8482,7 +8546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="BFE1" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="DFD3" scenarios="true" objects="true"/>
   <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B61:C61"/>
@@ -8581,10 +8645,10 @@
         <v>40</v>
       </c>
       <c r="G22" s="50" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" s="55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I22" s="56" t="n">
         <v>1.0</v>
@@ -8821,10 +8885,10 @@
         <v>70</v>
       </c>
       <c r="J22" s="50" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" s="55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L22" s="56" t="n">
         <v>1.0</v>
@@ -8845,7 +8909,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -8888,8 +8952,22 @@
         <v>78</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="DBE9" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="CABF" scenarios="true" objects="true"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8951,7 +9029,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9023,7 +9101,7 @@
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9125,7 +9203,7 @@
         <v>40</v>
       </c>
       <c r="R20" s="50" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="S20" s="50" t="n">
         <v>1.0</v>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>Duration</t>
   </si>
@@ -229,112 +229,47 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Sept 20, 2025 5:46:11 pm</t>
+    <t>Sept 23, 2025 9:56:37 am</t>
   </si>
   <si>
-    <t>Sept 20, 2025 5:41:00 pm</t>
+    <t>Sept 23, 2025 9:54:58 am</t>
   </si>
   <si>
-    <t>Sept 20, 2025 5:46:07 pm</t>
+    <t>Sept 23, 2025 9:56:33 am</t>
   </si>
   <si>
-    <t>5 m 7.108 s</t>
+    <t>1 m 35.193 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>67%</t>
+    <t>75%</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ASP_04</t>
+    <t>@TC_UI_Zlaata_EEF_04</t>
   </si>
   <si>
-    <t>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</t>
+    <t>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</t>
+    <t>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</t>
   </si>
   <si>
-    <t>5 m 6.272 s</t>
+    <t>1 m 34.452 s</t>
   </si>
   <si>
-    <t>5 m 6.277 s</t>
+    <t>1 m 34.460 s</t>
   </si>
   <si>
-    <t>Then I should see the same product appear first in the User Application Micro Page</t>
+    <t>Then I verify both exported inactive products files "InactiveProducts1.xlsx" and "InactiveProducts2.xlsx" have matching product names</t>
   </si>
   <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=140.0.7339.129)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.8'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6f42af8d51a245b62f759c30c0cc94cf, findElements {value=//div[@id='cls_newproduct_sec_dev']/div[contains(@class,'product_list_cards_list')][1]//h2[@class='product_list_cards_heading'], using=xpath}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.129, chrome: {chromedriverVersion: 140.0.7339.185 (eeea00e459e..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52687}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52687/devtoo..., se:cdpVersion: 140.0.7339.129, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6f42af8d51a245b62f759c30c0cc94cf
-	at java.base/jdk.internal.reflect.DirectConstructorHandleAccessor.newInstance(DirectConstructorHandleAccessor.java:62)
-	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:502)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:486)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElements(ElementLocation.java:182)
-	at org.openqa.selenium.remote.ElementLocation.findElements(ElementLocation.java:103)
-	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:380)
-	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:374)
-	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$8AV6NETA.findElements(Unknown Source)
-	at pages.AdminPanelSortingPage.lambda$3(AdminPanelSortingPage.java:723)
-	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
-	at pages.AdminPanelSortingPage.verifyFirstProductInUserAppMicroPage(AdminPanelSortingPage.java:719)
-	at stepDef.AdminPanelSortingStepDef.i_should_see_the_same_product_appear_first_in_the_user_application_Micro_Page(AdminPanelSortingStepDef.java:65)
-	at ✽.I should see the same product appear first in the User Application Micro Page(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:38)
-</t>
-  </si>
-  <si>
-    <t>stepDef.Hooks.tearDown(io.cucumber.java.Scenario)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=140.0.7339.129)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.8'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6f42af8d51a245b62f759c30c0cc94cf, screenshot {}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.129, chrome: {chromedriverVersion: 140.0.7339.185 (eeea00e459e..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52687}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52687/devtoo..., se:cdpVersion: 140.0.7339.129, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6f42af8d51a245b62f759c30c0cc94cf
-	at java.base/jdk.internal.reflect.DirectConstructorHandleAccessor.newInstance(DirectConstructorHandleAccessor.java:62)
-	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:502)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:486)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
-	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$8AV6NETA.getScreenshotAs(Unknown Source)
-	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
-	at stepDef.Hooks.tearDown(Hooks.java:298)
+    <t xml:space="preserve">java.lang.AssertionError: Products mismatch found.
+	at org.junit.Assert.fail(Assert.java:89)
+	at pages.AdminPanelExportExcelFileMatchPage.verifyExportedInactiveProductsMatch(AdminPanelExportExcelFileMatchPage.java:719)
+	at stepDef.AdminPanelExportExcelStepDef.i_verify_both_exported_inactive_products_files_and_have_matching_product_names(AdminPanelExportExcelStepDef.java:102)
+	at ✽.I verify both exported inactive products files "InactiveProducts1.xlsx" and "InactiveProducts2.xlsx" have matching product names(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/exportExcelFile.feature:42)
 </t>
   </si>
 </sst>
@@ -939,7 +874,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1007,7 +942,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1075,7 +1010,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1302,7 +1237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
+                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1369,7 +1304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
+                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1436,7 +1371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
+                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2601,7 +2536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
+                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2668,7 +2603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
+                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2735,7 +2670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
+                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2964,7 +2899,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2975,7 +2910,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3036,7 +2971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3103,7 +3038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4082,7 +4017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4093,7 +4028,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4154,7 +4089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4221,7 +4156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4637,7 +4572,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4704,7 +4639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4771,7 +4706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8546,7 +8481,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="DFD3" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FE9B" scenarios="true" objects="true"/>
   <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B61:C61"/>
@@ -8645,10 +8580,10 @@
         <v>40</v>
       </c>
       <c r="G22" s="50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H22" s="55" t="n">
         <v>3.0</v>
-      </c>
-      <c r="H22" s="55" t="n">
-        <v>2.0</v>
       </c>
       <c r="I22" s="56" t="n">
         <v>1.0</v>
@@ -8885,10 +8820,10 @@
         <v>70</v>
       </c>
       <c r="J22" s="50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K22" s="55" t="n">
         <v>3.0</v>
-      </c>
-      <c r="K22" s="55" t="n">
-        <v>2.0</v>
       </c>
       <c r="L22" s="56" t="n">
         <v>1.0</v>
@@ -8909,7 +8844,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -8952,22 +8887,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="CABF" scenarios="true" objects="true"/>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
+  <sheetProtection sheet="true" password="8609" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9029,7 +8950,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9101,7 +9022,7 @@
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9203,7 +9124,7 @@
         <v>40</v>
       </c>
       <c r="R20" s="50" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S20" s="50" t="n">
         <v>1.0</v>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -229,48 +229,43 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Sept 23, 2025 9:56:37 am</t>
+    <t>Sept 26, 2025 5:18:31 pm</t>
   </si>
   <si>
-    <t>Sept 23, 2025 9:54:58 am</t>
+    <t>Sept 26, 2025 5:18:14 pm</t>
   </si>
   <si>
-    <t>Sept 23, 2025 9:56:33 am</t>
+    <t>Sept 26, 2025 5:18:26 pm</t>
   </si>
   <si>
-    <t>1 m 35.193 s</t>
+    <t>11.612 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>75%</t>
+    <t>25%</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_EEF_04</t>
+    <t>@TC_UI_Zlaata_ADI_07</t>
   </si>
   <si>
-    <t>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</t>
+    <t>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</t>
+    <t>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</t>
   </si>
   <si>
-    <t>1 m 34.452 s</t>
+    <t>10.597 s</t>
   </si>
   <si>
-    <t>1 m 34.460 s</t>
+    <t>10.605 s</t>
   </si>
   <si>
-    <t>Then I verify both exported inactive products files "InactiveProducts1.xlsx" and "InactiveProducts2.xlsx" have matching product names</t>
+    <t>When Admin upload the Search Keyboard Style  excel "SearchStyle.xlsx"</t>
   </si>
   <si>
-    <t xml:space="preserve">java.lang.AssertionError: Products mismatch found.
-	at org.junit.Assert.fail(Assert.java:89)
-	at pages.AdminPanelExportExcelFileMatchPage.verifyExportedInactiveProductsMatch(AdminPanelExportExcelFileMatchPage.java:719)
-	at stepDef.AdminPanelExportExcelStepDef.i_verify_both_exported_inactive_products_files_and_have_matching_product_names(AdminPanelExportExcelStepDef.java:102)
-	at ✽.I verify both exported inactive products files "InactiveProducts1.xlsx" and "InactiveProducts2.xlsx" have matching product names(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/exportExcelFile.feature:42)
-</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -874,7 +869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -942,7 +937,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1010,7 +1005,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1237,7 +1232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1304,7 +1299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1371,7 +1366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2536,7 +2531,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2603,7 +2598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2670,7 +2665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
+                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2899,7 +2894,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2910,7 +2905,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,7 +2966,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2979,7 +2974,12 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3038,7 +3038,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4017,7 +4017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4028,7 +4028,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,7 +4089,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4097,7 +4097,12 @@
           <c:val>
             <c:numRef>
               <c:f>Scenarios!$J$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4156,7 +4161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_EEF_04 |Verify Inactive Products match between two exports.| "TD_UI_Zlaata_EEF_04"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4572,7 +4577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4639,7 +4644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4706,7 +4711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_EEF_04</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8481,7 +8486,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="FE9B" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FB1B" scenarios="true" objects="true"/>
   <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B61:C61"/>
@@ -8583,12 +8588,14 @@
         <v>4.0</v>
       </c>
       <c r="H22" s="55" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="J22" s="57"/>
+      <c r="J22" s="57" t="n">
+        <v>2.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8823,12 +8830,14 @@
         <v>4.0</v>
       </c>
       <c r="K22" s="55" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="M22" s="57"/>
+      <c r="M22" s="57" t="n">
+        <v>2.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8888,7 +8897,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="8609" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="8207" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8950,7 +8959,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8997,7 +9006,9 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -9124,12 +9135,14 @@
         <v>40</v>
       </c>
       <c r="R20" s="50" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S20" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="50"/>
+      <c r="T20" s="50" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="176">
   <si>
     <t>Duration</t>
   </si>
@@ -229,37 +229,241 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Oct 03, 2025 5:48:59 PM</t>
-  </si>
-  <si>
-    <t>Oct 03, 2025 5:38:05 PM</t>
-  </si>
-  <si>
-    <t>Oct 03, 2025 5:48:56 PM</t>
-  </si>
-  <si>
-    <t>10 m 50.684 s</t>
+    <t>Oct 04, 2025 9:27:36 AM</t>
+  </si>
+  <si>
+    <t>Oct 04, 2025 8:41:31 AM</t>
+  </si>
+  <si>
+    <t>Oct 04, 2025 9:27:31 AM</t>
+  </si>
+  <si>
+    <t>45 m 59.644 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>51%</t>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>90%</t>
   </si>
   <si>
     <t>@Regression</t>
   </si>
   <si>
+    <t>@TC_UI_Zlaata_ADI_05</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADM_05</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_EEF_01</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADMI_01</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ASP_01</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ASP_05</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_01</t>
+  </si>
+  <si>
+    <t>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</t>
+  </si>
+  <si>
+    <t>Home Page Banner upload verification admin panel</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</t>
+  </si>
+  <si>
+    <t>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</t>
+  </si>
+  <si>
+    <t>Admin can update product influencer status and verify in User App</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</t>
+  </si>
+  <si>
+    <t>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</t>
+  </si>
+  <si>
+    <t>This is Negative SignUp feature</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</t>
+  </si>
+  <si>
+    <t>1 m 18.626 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_02 |Verify Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_02"</t>
+  </si>
+  <si>
+    <t>1 m 8.229 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_03 |Verify Product Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_03"</t>
+  </si>
+  <si>
+    <t>1 m 13.031 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_04 |Verify All Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_04"</t>
+  </si>
+  <si>
+    <t>1 m 47.611 s</t>
+  </si>
+  <si>
+    <t>59.827 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_06 |Verify Search Keyboard Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_06"</t>
+  </si>
+  <si>
+    <t>45.923 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</t>
+  </si>
+  <si>
+    <t>44.370 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</t>
+  </si>
+  <si>
+    <t>59.287 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_03 |Verify New Arrivals Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_03"</t>
+  </si>
+  <si>
+    <t>1 m 24.399 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</t>
+  </si>
+  <si>
+    <t>1 m 2.727 s</t>
+  </si>
+  <si>
+    <t>21.177 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_06 |Remove product SKU from Top Selling and verify on User App.| "TD_UI_Zlaata_ADM_06"</t>
+  </si>
+  <si>
+    <t>1 m 27.004 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</t>
+  </si>
+  <si>
+    <t>1 m 52.498 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</t>
+  </si>
+  <si>
+    <t>1 m 11.055 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</t>
+  </si>
+  <si>
+    <t>1 m 11.665 s</t>
+  </si>
+  <si>
+    <t>2 m 36.941 s</t>
+  </si>
+  <si>
+    <t>3 m 3.953 s</t>
+  </si>
+  <si>
+    <t>5 m 42.446 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</t>
+  </si>
+  <si>
+    <t>5 m 19.840 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</t>
+  </si>
+  <si>
+    <t>4 m 49.799 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</t>
+  </si>
+  <si>
+    <t>5 m 0.911 s</t>
+  </si>
+  <si>
+    <t>1 m 55.171 s</t>
+  </si>
+  <si>
+    <t>1.465 s</t>
+  </si>
+  <si>
     <t>@TC_UI_Zlaata_ADI_01</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADI_05</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_05</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADI_02</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADI_03</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADI_04</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADI_06</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADI_07</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADM_02</t>
+  </si>
+  <si>
+    <t>@Positive</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADM_03</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADM_04</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_ADM_06</t>
   </si>
   <si>
     <t>@TC_UI_Zlaata_ADM_07</t>
@@ -271,15 +475,6 @@
     <t>@TC_UI_Zlaata_ADM_09</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_EEF_01</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADMI_01</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ASP_01</t>
-  </si>
-  <si>
     <t>@TC_UI_Zlaata_ASP_02</t>
   </si>
   <si>
@@ -289,260 +484,22 @@
     <t>@TC_UI_Zlaata_ASP_04</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ASP_05</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_01</t>
-  </si>
-  <si>
-    <t>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</t>
-  </si>
-  <si>
-    <t>Home Page Banner upload verification admin panel</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</t>
-  </si>
-  <si>
-    <t>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</t>
-  </si>
-  <si>
-    <t>Admin can update product influencer status and verify in User App</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</t>
-  </si>
-  <si>
-    <t>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</t>
-  </si>
-  <si>
-    <t>This is Negative SignUp feature</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</t>
-  </si>
-  <si>
-    <t>24.228 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_02 |Verify Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_02"</t>
-  </si>
-  <si>
-    <t>53.260 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_03 |Verify Product Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_03"</t>
-  </si>
-  <si>
-    <t>57.610 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_04 |Verify All Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_04"</t>
-  </si>
-  <si>
-    <t>58.933 s</t>
-  </si>
-  <si>
-    <t>1 m 9.402 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_06 |Verify Search Keyboard Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_06"</t>
-  </si>
-  <si>
-    <t>46.068 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</t>
-  </si>
-  <si>
-    <t>37.466 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</t>
-  </si>
-  <si>
-    <t>41.214 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_03 |Verify New Arrivals Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_03"</t>
-  </si>
-  <si>
-    <t>1 m 10.220 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</t>
-  </si>
-  <si>
-    <t>43.420 s</t>
-  </si>
-  <si>
-    <t>22.904 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_06 |Remove product SKU from Top Selling and verify on User App.| "TD_UI_Zlaata_ADM_06"</t>
-  </si>
-  <si>
-    <t>1 m 8.618 s</t>
-  </si>
-  <si>
-    <t>28.677 s</t>
-  </si>
-  <si>
-    <t>12.608 s</t>
-  </si>
-  <si>
-    <t>1.425 s</t>
-  </si>
-  <si>
-    <t>1.325 s</t>
-  </si>
-  <si>
-    <t>2.796 s</t>
-  </si>
-  <si>
-    <t>1.286 s</t>
-  </si>
-  <si>
-    <t>1.346 s</t>
-  </si>
-  <si>
-    <t>1.351 s</t>
-  </si>
-  <si>
-    <t>1.349 s</t>
-  </si>
-  <si>
-    <t>2.775 s</t>
-  </si>
-  <si>
-    <t>1.025 s</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_02</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_03</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_04</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_06</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_07</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_02</t>
-  </si>
-  <si>
-    <t>@Positive</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_03</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_04</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_06</t>
-  </si>
-  <si>
-    <t>5 m 47.147 s</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>4 m 49.177 s</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>8.143 s</t>
-  </si>
-  <si>
-    <t>When Admin upload the categories excel "Catagories1.xlsx"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;i class="fa fa-refresh"&gt;&lt;/i&gt; is not clickable at point (1418, 45). Other element would receive the click: &lt;div class="noty_body"&gt;...&lt;/div&gt;
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c38fab970a23a611b266e32aa15cd2a6, clickElement {id=f.53CD63642CBC437851A2C2089BB39AFF.d.324000ABD9C9EC1B5BD9D31C876DB6F0.e.219}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49293}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49293/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (c38fab970a23a611b266e32aa15cd2a6)] -&gt; xpath: //i[@class='fa fa-refresh']]
-Session ID: c38fab970a23a611b266e32aa15cd2a6
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$nCpAbdn5.click(Unknown Source)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
-	at com.sun.proxy.$Proxy50.click(Unknown Source)
-	at objectRepo.AdminPanelAllImportObjRepo.click(AdminPanelAllImportObjRepo.java:23)
-	at pages.AdminPanelAllImortPage.uploadTheCategoriesImport(AdminPanelAllImortPage.java:71)
-	at stepDef.AdminPanelAllImportStepDef.admin_upload_the_categories_excel(AdminPanelAllImportStepDef.java:25)
-	at ✽.Admin upload the categories excel "Catagories1.xlsx"(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/allImport.feature:9)
-</t>
+    <t>7 m 57.789 s</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>9 m 29.911 s</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>22 m 48.265 s</t>
+  </si>
+  <si>
+    <t>60%</t>
   </si>
   <si>
     <t>And Admin verify Search Keyboard Product  from "SearchProduct.xlsx" should be visible in user app</t>
@@ -552,9 +509,9 @@
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [62a3a2e472adb63619f05d9864465979, findElement [value, using]]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50093}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50093/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 62a3a2e472adb63619f05d9864465979
+Command: [cba30ed9bec46ade6c516e229842fec8, findElement [using, value]]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58762}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58762/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cba30ed9bec46ade6c516e229842fec8
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:571)
 	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
 	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
@@ -566,7 +523,7 @@
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$D9u0T91b.findElement(Unknown Source)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$z97RxJUg.findElement(Unknown Source)
 	at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:194)
 	at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:190)
 	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
@@ -627,9 +584,9 @@
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [62a3a2e472adb63619f05d9864465979, screenshot []]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50093}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50093/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 62a3a2e472adb63619f05d9864465979
+Command: [cba30ed9bec46ade6c516e229842fec8, screenshot []]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58762}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58762/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cba30ed9bec46ade6c516e229842fec8
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:571)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
@@ -641,7 +598,7 @@
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$D9u0T91b.getScreenshotAs(Unknown Source)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$z97RxJUg.getScreenshotAs(Unknown Source)
 	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
 	at stepDef.Hooks.tearDown(Hooks.java:298)
 Caused by: java.io.UncheckedIOException: java.net.ConnectException: Connection refused: no further information
@@ -678,10 +635,10 @@
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [730c791da9604efe82478b671fb09a07, clickElement {id=f.795A7409FDB32240AFD2B6704B4D5C17.d.CBE9C02673E997412EBC15294F51B22A.e.172}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64161}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64161/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (730c791da9604efe82478b671fb09a07)] -&gt; xpath: //a[normalize-space()='SKU']]
-Session ID: 730c791da9604efe82478b671fb09a07
+Command: [8d6a18974ab98e54add996afa4c2f875, clickElement {id=f.E0DFC79DE95EFE5D42C1980958218D59.d.EBAEBC65A50BDF249816286873A8864A.e.8497}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59361}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59361/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (8d6a18974ab98e54add996afa4c2f875)] -&gt; xpath: //a[normalize-space()='SKU']]
+Session ID: 8d6a18974ab98e54add996afa4c2f875
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -695,14 +652,14 @@
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
 	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
 	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
-	at jdk.internal.reflect.GeneratedMethodAccessor123.invoke(Unknown Source)
+	at jdk.internal.reflect.GeneratedMethodAccessor100.invoke(Unknown Source)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$QGbQzeJ1.click(Unknown Source)
-	at jdk.internal.reflect.GeneratedMethodAccessor123.invoke(Unknown Source)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$bYuGr5Ui.click(Unknown Source)
+	at jdk.internal.reflect.GeneratedMethodAccessor100.invoke(Unknown Source)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
@@ -713,18 +670,29 @@
 </t>
   </si>
   <si>
-    <t>When I upload the special product excel "Test.xlsx"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;i class="fa fa-refresh"&gt;&lt;/i&gt; is not clickable at point (1419, 45). Other element would receive the click: &lt;div class="modal fade show" id="productImport" data-backdrop="static" data-keyboard="false" tabindex="-1" aria-labelledby="productImportLabel" aria-modal="true" role="dialog" style="padding-right: 15px; display: block;"&gt;...&lt;/div&gt;
+    <t>Then I verify both exported files "NewProductAdd1.xlsx" and "NewProductAdd2.xlsx" have matching product names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: Products mismatch found.
+	at org.junit.Assert.fail(Assert.java:89)
+	at pages.AdminPanelExportExcelFileMatchPage.verifyExportedProductsMatch(AdminPanelExportExcelFileMatchPage.java:215)
+	at stepDef.AdminPanelExportExcelStepDef.i_verify_both_exported_files_and_have_matching_product_names(AdminPanelExportExcelStepDef.java:44)
+	at ✽.I verify both exported files "NewProductAdd1.xlsx" and "NewProductAdd2.xlsx" have matching product names(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/exportExcelFile.feature:10)
+</t>
+  </si>
+  <si>
+    <t>Then I verify the product appears on the User App Influencer page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id: session deleted as the browser has closed the connection
+from disconnected: not connected to DevTools
   (Session info: chrome=140.0.7339.208)
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e62f4907a98ff01d0f22927286a78c27, clickElement {id=f.52E37B783B8D75F0BE12E1CCE080660E.d.E6EE7744115A124AAF964BFDFA525366.e.209}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54985}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:54985/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (e62f4907a98ff01d0f22927286a78c27)] -&gt; xpath: //i[@class='fa fa-refresh']]
-Session ID: e62f4907a98ff01d0f22927286a78c27
+Command: [0657d30fa07abc964d006f4fc8531543, refresh {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57430/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0657d30fa07abc964d006f4fc8531543
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -736,38 +704,31 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
-	at jdk.internal.reflect.GeneratedMethodAccessor123.invoke(Unknown Source)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver$RemoteNavigation.refresh(RemoteWebDriver.java:1086)
+	at jdk.internal.reflect.GeneratedMethodAccessor219.invoke(Unknown Source)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$6Yas91KE.click(Unknown Source)
-	at jdk.internal.reflect.GeneratedMethodAccessor123.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
-	at com.sun.proxy.$Proxy50.click(Unknown Source)
-	at objectRepo.AdminPanelObjRepo.click(AdminPanelObjRepo.java:81)
-	at pages.AdminPanelPage.uploadTheSpecialTimerProductExcel(AdminPanelPage.java:1192)
-	at stepDef.AdminPanelStepDef.i_upload_the_special_product_excel(AdminPanelStepDef.java:155)
-	at ✽.I upload the special product excel "Test.xlsx"(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:79)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$mFI3wPWP.refresh(Unknown Source)
+	at pages.AdminPanelInfluencerPage.lambda$0(AdminPanelInfluencerPage.java:304)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
+	at pages.AdminPanelInfluencerPage.verifyFirstProductInUserAppInfluencer(AdminPanelInfluencerPage.java:303)
+	at stepDef.AdminPanelInfluencerStepDef.i_verify_the_product_appears_on_the_user_app_influencer_page(AdminPanelInfluencerStepDef.java:38)
+	at ✽.I verify the product appears on the User App Influencer page(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/influencer.feature:8)
 </t>
   </si>
   <si>
-    <t>Given admin is logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_INTERNET_DISCONNECTED
-  (Session info: chrome=140.0.7339.208)
+    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [35d1bf8ec2b39877c4a6648389a82e2d, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57278}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57278/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 35d1bf8ec2b39877c4a6648389a82e2d
+Command: [0657d30fa07abc964d006f4fc8531543, screenshot {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57430/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0657d30fa07abc964d006f4fc8531543
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -779,28 +740,34 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$3QsFHNOj.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:90)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$f2Hzhg2k.getScreenshotAs(Unknown Source)
+	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
+	at stepDef.Hooks.tearDown(Hooks.java:298)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
+    <t>Then I should see the same product appear first in the User Application category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
   (Session info: chrome=140.0.7339.208)
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [365bb154385cd9f5b9467f271c03d144, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54522}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:54522/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 365bb154385cd9f5b9467f271c03d144
+Command: [982e562f58c96fc257b52059b629e1d8, findElements {using=xpath, value=//div[@id='cls_newproduct_sec_dev']/div[contains(@class,'product_list_cards_list')][1]//h2[@class='product_list_cards_heading']}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63981}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63981/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 982e562f58c96fc257b52059b629e1d8
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -812,28 +779,34 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElements(ElementLocation.java:182)
+	at org.openqa.selenium.remote.ElementLocation.findElements(ElementLocation.java:103)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:380)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:374)
+	at jdk.internal.reflect.GeneratedMethodAccessor182.invoke(Unknown Source)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$5M15FUkR.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:103)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$njshPuOW.findElements(Unknown Source)
+	at pages.AdminPanelSortingPage.lambda$0(AdminPanelSortingPage.java:233)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
+	at pages.AdminPanelSortingPage.verifyFirstProductInUserApp(AdminPanelSortingPage.java:229)
+	at stepDef.AdminPanelSortingStepDef.i_should_see_the_same_product_appear_first_in_the_user_application_category(AdminPanelSortingStepDef.java:29)
+	at ✽.I should see the same product appear first in the User Application category(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:9)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
+    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
+from unknown error: web view not found
   (Session info: chrome=140.0.7339.208)
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e928c1e3cbbae178843f1e2782857418, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54538}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:54538/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e928c1e3cbbae178843f1e2782857418
+Command: [982e562f58c96fc257b52059b629e1d8, screenshot {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63981}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63981/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 982e562f58c96fc257b52059b629e1d8
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -845,31 +818,34 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$8irQ8UUz.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/exportExcelFile.feature:7)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$njshPuOW.getScreenshotAs(Unknown Source)
+	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
+	at stepDef.Hooks.tearDown(Hooks.java:298)
 </t>
   </si>
   <si>
-    <t>Given I take a random product from User App</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
+    <t>Then I should see the same product appear first in the User Application All Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id: session deleted as the browser has closed the connection
+from disconnected: not connected to DevTools
   (Session info: chrome=140.0.7339.208)
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [57508b72a7962aa8efca99b6b0079b78, get {url=https://qa.zlta.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53629}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:53629/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 57508b72a7962aa8efca99b6b0079b78
+Command: [8636cd98415f8655c152d68e50aad9c0, refresh {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64259}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64259/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8636cd98415f8655c152d68e50aad9c0
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -881,28 +857,31 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver$RemoteNavigation.refresh(RemoteWebDriver.java:1086)
+	at jdk.internal.reflect.GeneratedMethodAccessor219.invoke(Unknown Source)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$otY9aKZg.get(Unknown Source)
-	at pages.AdminPanelInfluencerPage.takeRandomProductName(AdminPanelInfluencerPage.java:47)
-	at stepDef.AdminPanelInfluencerStepDef.i_take_a_random_product_from_user_app(AdminPanelInfluencerStepDef.java:24)
-	at ✽.I take a random product from User App(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/influencer.feature:6)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$Y9Fw2IBF.refresh(Unknown Source)
+	at pages.AdminPanelSortingPage.lambda$4(AdminPanelSortingPage.java:885)
+	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
+	at pages.AdminPanelSortingPage.verifyFirstProductInUserAppAllProduct(AdminPanelSortingPage.java:884)
+	at stepDef.AdminPanelSortingStepDef.i_should_see_the_same_product_appear_first_in_the_user_application_All_Product(AdminPanelSortingStepDef.java:77)
+	at ✽.I should see the same product appear first in the User Application All Product(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:53)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
-  (Session info: chrome=140.0.7339.208)
+    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [dd308938dc9335e6e6f5845d2cd8a94b, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56651}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56651/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: dd308938dc9335e6e6f5845d2cd8a94b
+Command: [8636cd98415f8655c152d68e50aad9c0, screenshot {}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64259}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64259/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8636cd98415f8655c152d68e50aad9c0
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -914,149 +893,19 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
+	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$n2keDHZ2.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:7)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e397e3029ffa1cc83b35a9a462648857, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61146}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61146/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e397e3029ffa1cc83b35a9a462648857
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$xpGOd1gJ.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:18)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c2e0bcce22df6d975fb9b983bb69cdc1, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61162}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61162/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c2e0bcce22df6d975fb9b983bb69cdc1
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$PzXkFyge.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:29)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a86f580595ac00fed12a2f43a0f93f3b, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63555}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63555/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a86f580595ac00fed12a2f43a0f93f3b
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$JiJ7gyaE.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:40)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.WebDriverException: unknown error: net::ERR_NAME_NOT_RESOLVED
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [048fcd5bc5ca188fa938fc6269365e07, get {url=https://qa.adm.testingserver8.com/}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55683}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55683/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 048fcd5bc5ca188fa938fc6269365e07
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.get(RemoteWebDriver.java:312)
-	at jdk.internal.reflect.GeneratedMethodAccessor164.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$2bJstuG5.get(Unknown Source)
-	at pages.AdminPanelPage.adminLogin(AdminPanelPage.java:182)
-	at stepDef.AdminPanelStepDef.admin_is_logged_in(AdminPanelStepDef.java:42)
-	at ✽.admin is logged in(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:51)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$XGWadm7M.getScreenshotAs(Unknown Source)
+	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
+	at stepDef.Hooks.tearDown(Hooks.java:298)
 </t>
   </si>
   <si>
@@ -1205,6 +1054,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color rgb="00FF00"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <i val="true"/>
     </font>
     <font>
@@ -1221,12 +1076,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1525,7 +1374,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1534,7 +1383,7 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1680,52 +1529,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$34</c:f>
+              <c:f>'DB Data'!$A$20:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>@Regression</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ADM_09</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_ASP_02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_ASP_03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
               </c:strCache>
@@ -1733,11 +1561,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20:$B$34</c:f>
+              <c:f>'DB Data'!$B$20:$B$27</c:f>
               <c:numCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,52 +1623,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$34</c:f>
+              <c:f>'DB Data'!$A$20:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>@Regression</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ADM_09</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_ASP_02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_ASP_03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
               </c:strCache>
@@ -1848,7 +1655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20:$D$34</c:f>
+              <c:f>'DB Data'!$D$20:$D$27</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1905,52 +1712,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$34</c:f>
+              <c:f>'DB Data'!$A$20:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>@Regression</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
+                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
+                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
+                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ADM_09</c:v>
+                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_ASP_02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_ASP_03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
               </c:strCache>
@@ -1958,11 +1744,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20:$C$34</c:f>
+              <c:f>'DB Data'!$C$20:$C$27</c:f>
               <c:numCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -1983,27 +1769,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2246,10 +2011,13 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,10 +2186,10 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -2430,7 +2198,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
@@ -3613,10 +3381,13 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,10 +3556,10 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -3797,7 +3568,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
@@ -4014,49 +3785,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$33</c:f>
+              <c:f>'DB Data'!$P$20:$P$26</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4064,20 +3814,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20:$R$33</c:f>
+              <c:f>'DB Data'!$R$20:$R$26</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,49 +3890,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$33</c:f>
+              <c:f>'DB Data'!$P$20:$P$26</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4184,44 +3919,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20:$T$33</c:f>
+              <c:f>'DB Data'!$T$20:$T$26</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4278,49 +3980,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$33</c:f>
+              <c:f>'DB Data'!$P$20:$P$26</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
+                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
+                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</c:v>
+                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4328,9 +4009,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20:$S$33</c:f>
+              <c:f>'DB Data'!$S$20:$S$26</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -4350,27 +4031,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5416,7 +5076,7 @@
               <c:numCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0</c:v>
@@ -5452,7 +5112,34 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5589,41 +5276,8 @@
               <c:f>Scenarios!$J$22:$J$44</c:f>
               <c:numCache>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5760,24 +5414,12 @@
               <c:f>Scenarios!$I$22:$I$44</c:f>
               <c:numCache>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5785,15 +5427,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
@@ -6288,7 +5921,10 @@
               <c:numCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>9.0</c:v>
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -6318,6 +5954,24 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6601,10 +6255,7 @@
               <c:numCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
@@ -6612,15 +6263,6 @@
                 <c:pt idx="12">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -6628,15 +6270,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
@@ -6786,13 +6419,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6818,13 +6451,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10306,7 +9939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G102"/>
+  <dimension ref="B19:G81"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10350,12 +9983,12 @@
         <v>73</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G39" s="53" t="s">
         <v>40</v>
@@ -10363,11 +9996,13 @@
     </row>
     <row r="40">
       <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="C40" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
       <c r="F40" s="52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G40" s="53" t="s">
         <v>40</v>
@@ -10376,12 +10011,12 @@
     <row r="41">
       <c r="B41" s="49"/>
       <c r="C41" s="52" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="49"/>
       <c r="F41" s="52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G41" s="53" t="s">
         <v>40</v>
@@ -10389,11 +10024,13 @@
     </row>
     <row r="42">
       <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
+      <c r="C42" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
       <c r="F42" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G42" s="53" t="s">
         <v>40</v>
@@ -10401,11 +10038,13 @@
     </row>
     <row r="43">
       <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
       <c r="F43" s="52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G43" s="53" t="s">
         <v>40</v>
@@ -10417,7 +10056,7 @@
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
       <c r="F44" s="52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>40</v>
@@ -10426,602 +10065,300 @@
     <row r="45">
       <c r="B45" s="49"/>
       <c r="C45" s="52" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
       <c r="F45" s="52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G45" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="49"/>
+      <c r="B46" s="51" t="s">
+        <v>74</v>
+      </c>
       <c r="C46" s="52" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="49"/>
       <c r="F46" s="52" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G46" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="49"/>
+      <c r="B47" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="C47" s="52" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="49"/>
       <c r="F47" s="52" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G47" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>85</v>
+      </c>
       <c r="D48" s="49"/>
       <c r="E48" s="49"/>
       <c r="F48" s="52" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="D49" s="49"/>
       <c r="E49" s="49"/>
       <c r="F49" s="52" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G49" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
+      <c r="B50" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="D50" s="49"/>
       <c r="E50" s="49"/>
       <c r="F50" s="52" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G50" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
+      <c r="B51" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
       <c r="F51" s="52" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="49"/>
+      <c r="B52" s="51" t="s">
+        <v>80</v>
+      </c>
       <c r="C52" s="52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
       <c r="F52" s="52" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G52" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="52" t="s">
+    <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="73" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="38"/>
+      <c r="G74" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="49"/>
+      <c r="D75" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="49"/>
+      <c r="G75" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="49"/>
+      <c r="D76" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="49"/>
+      <c r="G76" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="49"/>
+      <c r="D77" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="49"/>
+      <c r="G77" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="49"/>
+      <c r="D78" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="52" t="s">
+      <c r="F78" s="49"/>
+      <c r="G78" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="C79" s="49"/>
+      <c r="D79" s="53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="52" t="s">
+      <c r="E79" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="53" t="s">
+      <c r="F79" s="49"/>
+      <c r="G79" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="52" t="s">
+    <row r="80">
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="52" t="s">
+      <c r="F80" s="49"/>
+      <c r="G80" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="53" t="s">
+      <c r="C81" s="49"/>
+      <c r="D81" s="53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="52" t="s">
+      <c r="E81" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="53" t="s">
+      <c r="F81" s="49"/>
+      <c r="G81" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="G58" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="G63" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G64" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="87" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B87" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" s="49"/>
-      <c r="G91" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92" s="49"/>
-      <c r="G92" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F96" s="49"/>
-      <c r="G96" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F100" s="49"/>
-      <c r="G100" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F101" s="49"/>
-      <c r="G101" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="49"/>
-      <c r="D102" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E102" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="9109" scenarios="true" objects="true"/>
-  <mergeCells count="49">
+  <sheetProtection sheet="true" password="C58F" scenarios="true" objects="true"/>
+  <mergeCells count="33">
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="B39:B52"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="C41:E44"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E51"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="B89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="B91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="B97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11098,16 +10435,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>40</v>
@@ -11115,28 +10452,24 @@
       <c r="G22" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H22" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J22" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="H22" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="54" t="s">
-        <v>110</v>
+      <c r="D23" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>40</v>
@@ -11144,24 +10477,24 @@
       <c r="G23" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H23" s="55" t="n">
+      <c r="H23" s="56" t="n">
         <v>4.0</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="54" t="s">
-        <v>112</v>
+      <c r="D24" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>40</v>
@@ -11169,24 +10502,24 @@
       <c r="G24" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H24" s="55" t="n">
+      <c r="H24" s="56" t="n">
         <v>4.0</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>114</v>
+      <c r="D25" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>40</v>
@@ -11194,24 +10527,24 @@
       <c r="G25" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H25" s="55" t="n">
+      <c r="H25" s="56" t="n">
         <v>4.0</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="54" t="s">
-        <v>115</v>
+      <c r="D26" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>40</v>
@@ -11219,26 +10552,26 @@
       <c r="G26" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H26" s="55" t="n">
+      <c r="H26" s="56" t="n">
         <v>3.0</v>
       </c>
-      <c r="I26" s="56" t="n">
+      <c r="I26" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>117</v>
+      <c r="D27" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>40</v>
@@ -11246,24 +10579,24 @@
       <c r="G27" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H27" s="55" t="n">
+      <c r="H27" s="56" t="n">
         <v>4.0</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="54" t="s">
-        <v>119</v>
+      <c r="D28" s="55" t="s">
+        <v>106</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>40</v>
@@ -11271,24 +10604,24 @@
       <c r="G28" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H28" s="55" t="n">
+      <c r="H28" s="56" t="n">
         <v>4.0</v>
       </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="54" t="s">
-        <v>121</v>
+      <c r="D29" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>40</v>
@@ -11296,24 +10629,24 @@
       <c r="G29" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H29" s="55" t="n">
+      <c r="H29" s="56" t="n">
         <v>4.0</v>
       </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30">
       <c r="B30" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="54" t="s">
-        <v>123</v>
+      <c r="D30" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>40</v>
@@ -11321,24 +10654,24 @@
       <c r="G30" s="50" t="n">
         <v>5.0</v>
       </c>
-      <c r="H30" s="55" t="n">
+      <c r="H30" s="56" t="n">
         <v>5.0</v>
       </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31">
       <c r="B31" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="54" t="s">
-        <v>125</v>
+      <c r="D31" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>40</v>
@@ -11346,24 +10679,24 @@
       <c r="G31" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H31" s="55" t="n">
+      <c r="H31" s="56" t="n">
         <v>3.0</v>
       </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32">
       <c r="B32" s="51" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="54" t="s">
-        <v>126</v>
+      <c r="D32" s="55" t="s">
+        <v>113</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>40</v>
@@ -11371,28 +10704,28 @@
       <c r="G32" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H32" s="55" t="n">
+      <c r="H32" s="56" t="n">
         <v>2.0</v>
       </c>
-      <c r="I32" s="56" t="n">
+      <c r="I32" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J32" s="57" t="n">
+      <c r="J32" s="58" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="54" t="s">
-        <v>128</v>
+      <c r="D33" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>40</v>
@@ -11400,24 +10733,24 @@
       <c r="G33" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H33" s="55" t="n">
+      <c r="H33" s="56" t="n">
         <v>3.0</v>
       </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34">
       <c r="B34" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>129</v>
+        <v>116</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>117</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>40</v>
@@ -11425,28 +10758,24 @@
       <c r="G34" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H34" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I34" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J34" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="H34" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35">
       <c r="B35" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>130</v>
+        <v>118</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>119</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F35" s="53" t="s">
         <v>40</v>
@@ -11454,26 +10783,24 @@
       <c r="G35" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J35" s="57" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="H35" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36">
       <c r="B36" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F36" s="53" t="s">
         <v>40</v>
@@ -11481,26 +10808,24 @@
       <c r="G36" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J36" s="57" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="H36" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
     </row>
     <row r="37">
       <c r="B37" s="51" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="54" t="s">
-        <v>132</v>
+      <c r="D37" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F37" s="53" t="s">
         <v>40</v>
@@ -11508,26 +10833,26 @@
       <c r="G37" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56" t="n">
+      <c r="H37" s="56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I37" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J37" s="57" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="J37" s="58"/>
     </row>
     <row r="38">
       <c r="B38" s="51" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="54" t="s">
-        <v>133</v>
+      <c r="D38" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F38" s="53" t="s">
         <v>40</v>
@@ -11535,26 +10860,26 @@
       <c r="G38" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56" t="n">
+      <c r="H38" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J38" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="J38" s="58"/>
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="54" t="s">
-        <v>134</v>
+      <c r="D39" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>40</v>
@@ -11562,26 +10887,26 @@
       <c r="G39" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56" t="n">
+      <c r="H39" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I39" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J39" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="J39" s="58"/>
     </row>
     <row r="40">
       <c r="B40" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F40" s="53" t="s">
         <v>40</v>
@@ -11589,26 +10914,24 @@
       <c r="G40" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J40" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="H40" s="56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
     </row>
     <row r="41">
       <c r="B41" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>128</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F41" s="53" t="s">
         <v>40</v>
@@ -11616,26 +10939,24 @@
       <c r="G41" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J41" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="H41" s="56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42">
       <c r="B42" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F42" s="53" t="s">
         <v>40</v>
@@ -11643,26 +10964,24 @@
       <c r="G42" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J42" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="H42" s="56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43">
       <c r="B43" s="51" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="54" t="s">
-        <v>138</v>
+      <c r="D43" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F43" s="53" t="s">
         <v>40</v>
@@ -11670,26 +10989,26 @@
       <c r="G43" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="56" t="n">
+      <c r="H43" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I43" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J43" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="J43" s="58"/>
     </row>
     <row r="44">
       <c r="B44" s="51" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="54" t="s">
-        <v>139</v>
+      <c r="D44" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F44" s="53" t="s">
         <v>40</v>
@@ -11697,11 +11016,11 @@
       <c r="G44" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="56" t="n">
+      <c r="H44" s="56"/>
+      <c r="I44" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J44" s="57"/>
+      <c r="J44" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11772,397 +11091,397 @@
       <c r="C22" s="50" t="n">
         <v>23.0</v>
       </c>
-      <c r="D22" s="55" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E22" s="56" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F22" s="57"/>
+      <c r="D22" s="56" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E22" s="57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F22" s="58"/>
       <c r="G22" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56" t="n">
+      <c r="D23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D24" s="55" t="n">
+      <c r="D24" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D25" s="55" t="n">
+      <c r="D25" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D26" s="55" t="n">
+      <c r="D26" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56" t="n">
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C28" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D28" s="55" t="n">
+      <c r="D28" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C29" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D29" s="55" t="n">
+      <c r="D29" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="51" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C30" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D30" s="55" t="n">
+      <c r="D30" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C31" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D31" s="55" t="n">
+      <c r="D31" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="51" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C32" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D32" s="55" t="n">
+      <c r="D32" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="51" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C33" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D33" s="55" t="n">
+      <c r="D33" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56" t="n">
+      <c r="D34" s="56"/>
+      <c r="E34" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="51" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C35" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D35" s="55" t="n">
+      <c r="D35" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="59" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="51" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C36" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56" t="n">
+      <c r="D36" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="51" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C37" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56" t="n">
+      <c r="D37" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="51" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C38" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56" t="n">
+      <c r="D38" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56" t="n">
+      <c r="D39" s="56"/>
+      <c r="E39" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F39" s="57"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C40" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56" t="n">
+      <c r="D40" s="56"/>
+      <c r="E40" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C41" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56" t="n">
+      <c r="D41" s="56"/>
+      <c r="E41" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="51" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C42" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56" t="n">
+      <c r="D42" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="51" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C43" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56" t="n">
+      <c r="D43" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="51" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C44" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="56" t="n">
+      <c r="D44" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="59" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C45" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="56" t="n">
+      <c r="D45" s="56"/>
+      <c r="E45" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F45" s="57"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C46" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56" t="n">
+      <c r="D46" s="56"/>
+      <c r="E46" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="F46" s="57"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="59" t="s">
         <v>70</v>
       </c>
@@ -12190,17 +11509,17 @@
         <v>73</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
-      <c r="H51" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="53" t="s">
-        <v>40</v>
+      <c r="H51" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -12211,9 +11530,9 @@
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12225,9 +11544,9 @@
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12239,9 +11558,9 @@
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
       <c r="H54" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12253,7 +11572,7 @@
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
       <c r="H55" s="52" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I55" s="53" t="s">
         <v>40</v>
@@ -12267,9 +11586,9 @@
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
       <c r="H56" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12281,25 +11600,25 @@
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
       <c r="H57" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="I57" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="49"/>
       <c r="C58" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12311,9 +11630,9 @@
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
       <c r="H59" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="I59" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12325,9 +11644,9 @@
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
       <c r="H60" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="I60" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12339,7 +11658,7 @@
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
       <c r="H61" s="52" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I61" s="53" t="s">
         <v>40</v>
@@ -12353,9 +11672,9 @@
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
       <c r="H62" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I62" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I62" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12366,11 +11685,11 @@
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
       <c r="G63" s="49"/>
-      <c r="H63" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="I63" s="53" t="s">
-        <v>40</v>
+      <c r="H63" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64">
@@ -12380,11 +11699,11 @@
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
-      <c r="H64" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="I64" s="53" t="s">
-        <v>40</v>
+      <c r="H64" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="65">
@@ -12394,24 +11713,24 @@
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
-      <c r="H65" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65" s="53" t="s">
-        <v>40</v>
+      <c r="H65" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="49"/>
       <c r="C66" s="52" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D66" s="49"/>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="52" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I66" s="53" t="s">
         <v>40</v>
@@ -12420,14 +11739,14 @@
     <row r="67">
       <c r="B67" s="49"/>
       <c r="C67" s="52" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
       <c r="H67" s="52" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I67" s="53" t="s">
         <v>40</v>
@@ -12436,14 +11755,14 @@
     <row r="68">
       <c r="B68" s="49"/>
       <c r="C68" s="52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D68" s="49"/>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49"/>
       <c r="H68" s="52" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I68" s="53" t="s">
         <v>40</v>
@@ -12456,11 +11775,11 @@
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
-      <c r="H69" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="53" t="s">
-        <v>40</v>
+      <c r="H69" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I69" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70">
@@ -12470,11 +11789,11 @@
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
-      <c r="H70" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" s="53" t="s">
-        <v>40</v>
+      <c r="H70" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="71">
@@ -12484,11 +11803,11 @@
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
-      <c r="H71" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>40</v>
+      <c r="H71" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72">
@@ -12499,7 +11818,7 @@
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
       <c r="H72" s="52" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I72" s="53" t="s">
         <v>40</v>
@@ -12508,14 +11827,14 @@
     <row r="73">
       <c r="B73" s="49"/>
       <c r="C73" s="52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
       <c r="H73" s="52" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I73" s="53" t="s">
         <v>40</v>
@@ -12523,89 +11842,89 @@
     </row>
     <row r="74">
       <c r="B74" s="51" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
       <c r="G74" s="49"/>
-      <c r="H74" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="I74" s="53" t="s">
-        <v>40</v>
+      <c r="H74" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
       <c r="G75" s="49"/>
       <c r="H75" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I75" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I75" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
       <c r="G76" s="49"/>
       <c r="H76" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I76" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="I76" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="51" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
       <c r="G77" s="49"/>
       <c r="H77" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="I77" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
       <c r="G78" s="49"/>
       <c r="H78" s="52" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I78" s="53" t="s">
         <v>40</v>
@@ -12613,125 +11932,125 @@
     </row>
     <row r="79">
       <c r="B79" s="51" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
       <c r="G79" s="49"/>
       <c r="H79" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I79" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="49"/>
       <c r="H80" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="I80" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="51" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
       <c r="G81" s="49"/>
       <c r="H81" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="I81" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="51" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D82" s="49"/>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
       <c r="G82" s="49"/>
       <c r="H82" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="I82" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="51" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
       <c r="G83" s="49"/>
       <c r="H83" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="I83" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="51" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D84" s="49"/>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
       <c r="H84" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="I84" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I84" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D85" s="49"/>
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
       <c r="G85" s="49"/>
       <c r="H85" s="52" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I85" s="53" t="s">
         <v>40</v>
@@ -12739,89 +12058,89 @@
     </row>
     <row r="86">
       <c r="B86" s="51" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D86" s="49"/>
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
       <c r="G86" s="49"/>
       <c r="H86" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I86" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I86" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="51" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D87" s="49"/>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
       <c r="G87" s="49"/>
-      <c r="H87" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="I87" s="53" t="s">
-        <v>40</v>
+      <c r="H87" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="51" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
       <c r="F88" s="49"/>
       <c r="G88" s="49"/>
-      <c r="H88" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="I88" s="53" t="s">
-        <v>40</v>
+      <c r="H88" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="I88" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="51" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="49"/>
       <c r="F89" s="49"/>
       <c r="G89" s="49"/>
-      <c r="H89" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I89" s="53" t="s">
-        <v>40</v>
+      <c r="H89" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I89" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D90" s="49"/>
       <c r="E90" s="49"/>
       <c r="F90" s="49"/>
       <c r="G90" s="49"/>
       <c r="H90" s="52" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I90" s="53" t="s">
         <v>40</v>
@@ -12829,17 +12148,17 @@
     </row>
     <row r="91">
       <c r="B91" s="51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D91" s="49"/>
       <c r="E91" s="49"/>
       <c r="F91" s="49"/>
       <c r="G91" s="49"/>
       <c r="H91" s="52" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I91" s="53" t="s">
         <v>40</v>
@@ -12847,17 +12166,17 @@
     </row>
     <row r="92">
       <c r="B92" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D92" s="49"/>
       <c r="E92" s="49"/>
       <c r="F92" s="49"/>
       <c r="G92" s="49"/>
       <c r="H92" s="52" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I92" s="53" t="s">
         <v>40</v>
@@ -12865,71 +12184,71 @@
     </row>
     <row r="93">
       <c r="B93" s="51" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D93" s="49"/>
       <c r="E93" s="49"/>
       <c r="F93" s="49"/>
       <c r="G93" s="49"/>
-      <c r="H93" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="I93" s="53" t="s">
-        <v>40</v>
+      <c r="H93" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I93" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="51" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D94" s="49"/>
       <c r="E94" s="49"/>
       <c r="F94" s="49"/>
       <c r="G94" s="49"/>
-      <c r="H94" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="I94" s="53" t="s">
-        <v>40</v>
+      <c r="H94" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="I94" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="51" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D95" s="49"/>
       <c r="E95" s="49"/>
       <c r="F95" s="49"/>
       <c r="G95" s="49"/>
-      <c r="H95" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I95" s="53" t="s">
-        <v>40</v>
+      <c r="H95" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="51" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D96" s="49"/>
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
       <c r="H96" s="52" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I96" s="53" t="s">
         <v>40</v>
@@ -12937,17 +12256,17 @@
     </row>
     <row r="97">
       <c r="B97" s="51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D97" s="49"/>
       <c r="E97" s="49"/>
       <c r="F97" s="49"/>
       <c r="G97" s="49"/>
       <c r="H97" s="52" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I97" s="53" t="s">
         <v>40</v>
@@ -13079,201 +12398,201 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="55" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="50" t="n">
         <v>7.0</v>
       </c>
-      <c r="F22" s="55" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G22" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H22" s="57"/>
+      <c r="F22" s="56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G22" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="58"/>
       <c r="I22" s="59" t="s">
         <v>152</v>
       </c>
       <c r="J22" s="50" t="n">
         <v>28.0</v>
       </c>
-      <c r="K22" s="55" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L22" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M22" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="K22" s="56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L22" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="58"/>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="55" t="s">
         <v>153</v>
       </c>
       <c r="E23" s="50" t="n">
         <v>8.0</v>
       </c>
-      <c r="F23" s="55" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G23" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="57"/>
+      <c r="F23" s="56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G23" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="58"/>
       <c r="I23" s="59" t="s">
         <v>154</v>
       </c>
       <c r="J23" s="50" t="n">
         <v>31.0</v>
       </c>
-      <c r="K23" s="55" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L23" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="M23" s="57" t="n">
-        <v>9.0</v>
+      <c r="K23" s="56" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L23" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="58" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="54" t="s">
-        <v>132</v>
+      <c r="D24" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="E24" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56" t="n">
+      <c r="F24" s="56"/>
+      <c r="G24" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="59" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="50" t="n">
         <v>4.0</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="56" t="n">
+      <c r="K24" s="56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L24" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="M24" s="57" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="M24" s="58"/>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>133</v>
+      <c r="D25" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="E25" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56" t="n">
+      <c r="F25" s="56"/>
+      <c r="G25" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="58"/>
       <c r="I25" s="59" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="50" t="n">
         <v>3.0</v>
       </c>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56" t="n">
+      <c r="K25" s="56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="M25" s="57" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="M25" s="58"/>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="55" t="s">
         <v>155</v>
       </c>
       <c r="E26" s="50" t="n">
         <v>5.0</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H26" s="57"/>
+      <c r="F26" s="56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G26" s="57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H26" s="58"/>
       <c r="I26" s="59" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="J26" s="50" t="n">
         <v>15.0</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M26" s="57" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="K26" s="56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L26" s="57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M26" s="58"/>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>139</v>
+      <c r="D27" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="E27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56" t="n">
+      <c r="F27" s="56"/>
+      <c r="G27" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="59" t="s">
         <v>70</v>
       </c>
       <c r="J27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56" t="n">
+      <c r="K27" s="56"/>
+      <c r="L27" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="M27" s="57"/>
+      <c r="M27" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13289,7 +12608,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -13320,201 +12639,150 @@
     </row>
     <row r="3">
       <c r="B3" s="52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
-        <v>90</v>
-      </c>
+      <c r="C4" s="49"/>
       <c r="D4" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="D5" s="52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="52" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="49"/>
+      <c r="B7" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="49"/>
-      <c r="C8" s="52" t="s">
-        <v>94</v>
-      </c>
+      <c r="C8" s="49"/>
       <c r="D8" s="52" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="49"/>
+      <c r="B9" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="52" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>97</v>
-      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="52" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="52" t="s">
-        <v>98</v>
-      </c>
+      <c r="B11" s="49"/>
       <c r="C11" s="52" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>101</v>
-      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="52" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="49"/>
+      <c r="B13" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="C13" s="52" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="49"/>
-      <c r="C14" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="49"/>
-      <c r="C15" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="52" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="49"/>
-      <c r="C16" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="A197" scenarios="true" objects="true"/>
-  <mergeCells count="4">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B12:B16"/>
+  <sheetProtection sheet="true" password="A6C5" scenarios="true" objects="true"/>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13524,7 +12792,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13573,13 +12841,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>42.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13599,13 +12867,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13627,7 +12895,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13733,40 +13001,38 @@
         <v>73</v>
       </c>
       <c r="B20" s="50" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="C20" s="50" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="D20" s="50"/>
       <c r="H20" t="s" s="49">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="49">
         <v>40</v>
       </c>
       <c r="J20" s="50" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K20" s="50" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L20" s="50"/>
       <c r="P20" t="s" s="49">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q20" t="s" s="49">
         <v>40</v>
       </c>
       <c r="R20" s="50" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S20" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="50" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="T20" s="50"/>
     </row>
     <row r="21">
       <c r="A21" s="49" t="s">
@@ -13778,31 +13044,33 @@
       </c>
       <c r="D21" s="50"/>
       <c r="H21" s="49" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I21" s="49" t="s">
         <v>40</v>
       </c>
       <c r="J21" s="50" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="K21" s="50" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" s="50"/>
       <c r="P21" s="49" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="49" t="s">
         <v>40</v>
       </c>
       <c r="R21" s="50" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="S21" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T21" s="50"/>
+      <c r="T21" s="50" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="49" t="s">
@@ -13814,7 +13082,7 @@
       </c>
       <c r="D22" s="50"/>
       <c r="H22" s="49" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I22" s="49" t="s">
         <v>40</v>
@@ -13825,20 +13093,18 @@
       </c>
       <c r="L22" s="50"/>
       <c r="P22" s="49" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="49" t="s">
         <v>40</v>
       </c>
       <c r="R22" s="50" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T22" s="50" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="T22" s="50"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
@@ -13850,7 +13116,7 @@
       </c>
       <c r="D23" s="50"/>
       <c r="H23" s="49" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I23" s="49" t="s">
         <v>40</v>
@@ -13861,20 +13127,18 @@
       </c>
       <c r="L23" s="50"/>
       <c r="P23" s="49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="49" t="s">
         <v>40</v>
       </c>
       <c r="R23" s="50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T23" s="50" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="T23" s="50"/>
     </row>
     <row r="24">
       <c r="A24" s="49" t="s">
@@ -13886,29 +13150,31 @@
       </c>
       <c r="D24" s="50"/>
       <c r="H24" s="49" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="50"/>
+      <c r="J24" s="50" t="n">
+        <v>3.0</v>
+      </c>
       <c r="K24" s="50" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L24" s="50"/>
       <c r="P24" s="49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="50"/>
+      <c r="R24" s="50" t="n">
+        <v>2.0</v>
+      </c>
       <c r="S24" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T24" s="50" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="T24" s="50"/>
     </row>
     <row r="25">
       <c r="A25" s="49" t="s">
@@ -13920,7 +13186,7 @@
       </c>
       <c r="D25" s="50"/>
       <c r="H25" s="49" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I25" s="49" t="s">
         <v>40</v>
@@ -13931,18 +13197,18 @@
       </c>
       <c r="L25" s="50"/>
       <c r="P25" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="50"/>
+      <c r="R25" s="50" t="n">
+        <v>2.0</v>
+      </c>
       <c r="S25" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T25" s="50" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="T25" s="50"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
@@ -13954,7 +13220,7 @@
       </c>
       <c r="D26" s="50"/>
       <c r="P26" s="49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="49" t="s">
         <v>40</v>
@@ -13963,9 +13229,7 @@
       <c r="S26" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T26" s="50" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="T26" s="50"/>
     </row>
     <row r="27">
       <c r="A27" s="49" t="s">
@@ -13976,165 +13240,12 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="50"/>
-      <c r="P27" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T27" s="50" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="P28" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q28" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T28" s="50" t="n">
-        <v>2.0</v>
-      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="P29" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q29" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T29" s="50" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="P30" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q30" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T30" s="50" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="P31" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q31" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T31" s="50" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="P32" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q32" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T32" s="50" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="50"/>
-      <c r="P33" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q33" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T33" s="50"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="50"/>
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="144">
   <si>
     <t>Duration</t>
   </si>
@@ -229,684 +229,232 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Oct 04, 2025 9:27:36 AM</t>
-  </si>
-  <si>
-    <t>Oct 04, 2025 8:41:31 AM</t>
-  </si>
-  <si>
-    <t>Oct 04, 2025 9:27:31 AM</t>
-  </si>
-  <si>
-    <t>45 m 59.644 s</t>
+    <t>Oct 06, 2025 5:05:35 PM</t>
+  </si>
+  <si>
+    <t>Oct 06, 2025 5:01:17 PM</t>
+  </si>
+  <si>
+    <t>Oct 06, 2025 5:05:33 PM</t>
+  </si>
+  <si>
+    <t>4 m 16.301 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>@Regression</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_05</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_05</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_EEF_01</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADMI_01</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ASP_01</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ASP_05</t>
+    <t>95%</t>
   </si>
   <si>
     <t>@TC_UI_Zlaata_Signup_01</t>
   </si>
   <si>
-    <t>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</t>
-  </si>
-  <si>
-    <t>Home Page Banner upload verification admin panel</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</t>
-  </si>
-  <si>
-    <t>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</t>
-  </si>
-  <si>
-    <t>Admin can update product influencer status and verify in User App</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</t>
-  </si>
-  <si>
-    <t>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</t>
-  </si>
-  <si>
     <t>This is Negative SignUp feature</t>
   </si>
   <si>
     <t>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</t>
-  </si>
-  <si>
-    <t>1 m 18.626 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_02 |Verify Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_02"</t>
-  </si>
-  <si>
-    <t>1 m 8.229 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_03 |Verify Product Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_03"</t>
-  </si>
-  <si>
-    <t>1 m 13.031 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_04 |Verify All Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_04"</t>
-  </si>
-  <si>
-    <t>1 m 47.611 s</t>
-  </si>
-  <si>
-    <t>59.827 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_06 |Verify Search Keyboard Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_06"</t>
-  </si>
-  <si>
-    <t>45.923 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</t>
-  </si>
-  <si>
-    <t>44.370 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</t>
-  </si>
-  <si>
-    <t>59.287 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_03 |Verify New Arrivals Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_03"</t>
-  </si>
-  <si>
-    <t>1 m 24.399 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</t>
-  </si>
-  <si>
-    <t>1 m 2.727 s</t>
-  </si>
-  <si>
-    <t>21.177 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_06 |Remove product SKU from Top Selling and verify on User App.| "TD_UI_Zlaata_ADM_06"</t>
-  </si>
-  <si>
-    <t>1 m 27.004 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</t>
-  </si>
-  <si>
-    <t>1 m 52.498 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</t>
-  </si>
-  <si>
-    <t>1 m 11.055 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</t>
-  </si>
-  <si>
-    <t>1 m 11.665 s</t>
-  </si>
-  <si>
-    <t>2 m 36.941 s</t>
-  </si>
-  <si>
-    <t>3 m 3.953 s</t>
-  </si>
-  <si>
-    <t>5 m 42.446 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</t>
-  </si>
-  <si>
-    <t>5 m 19.840 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</t>
-  </si>
-  <si>
-    <t>4 m 49.799 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</t>
-  </si>
-  <si>
-    <t>5 m 0.911 s</t>
-  </si>
-  <si>
-    <t>1 m 55.171 s</t>
-  </si>
-  <si>
-    <t>1.465 s</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_01</t>
+    <t>3.841 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</t>
+  </si>
+  <si>
+    <t>12.628 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</t>
+  </si>
+  <si>
+    <t>19.104 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</t>
+  </si>
+  <si>
+    <t>9.365 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</t>
+  </si>
+  <si>
+    <t>14.076 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</t>
+  </si>
+  <si>
+    <t>15.957 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</t>
+  </si>
+  <si>
+    <t>8.820 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</t>
+  </si>
+  <si>
+    <t>12.383 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</t>
+  </si>
+  <si>
+    <t>11.717 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</t>
+  </si>
+  <si>
+    <t>9.856 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</t>
+  </si>
+  <si>
+    <t>13.048 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</t>
+  </si>
+  <si>
+    <t>14.994 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</t>
+  </si>
+  <si>
+    <t>7.061 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</t>
+  </si>
+  <si>
+    <t>7.138 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</t>
+  </si>
+  <si>
+    <t>8.260 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</t>
+  </si>
+  <si>
+    <t>14.293 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</t>
+  </si>
+  <si>
+    <t>8.456 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</t>
+  </si>
+  <si>
+    <t>13.997 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</t>
+  </si>
+  <si>
+    <t>15.452 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</t>
+  </si>
+  <si>
+    <t>5.966 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</t>
+  </si>
+  <si>
+    <t>17.869 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</t>
+  </si>
+  <si>
+    <t>10.781 s</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_02</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_ADI_02</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_03</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_04</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_06</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADI_07</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_02</t>
-  </si>
-  <si>
-    <t>@Positive</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_03</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_04</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_06</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_07</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_08</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ADM_09</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ASP_02</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ASP_03</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_ASP_04</t>
-  </si>
-  <si>
-    <t>7 m 57.789 s</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>9 m 29.911 s</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>22 m 48.265 s</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>And Admin verify Search Keyboard Product  from "SearchProduct.xlsx" should be visible in user app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.remote.UnreachableBrowserException: Error communicating with the remote browser. It may have died.
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [cba30ed9bec46ade6c516e229842fec8, findElement [using, value]]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58762}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58762/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: cba30ed9bec46ade6c516e229842fec8
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:571)
-	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
-	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
-	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
-	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
-	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$z97RxJUg.findElement(Unknown Source)
-	at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:194)
-	at org.openqa.selenium.support.ui.ExpectedConditions$7.apply(ExpectedConditions.java:190)
-	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
-	at pages.AdminPanelAllImortPage.verifySearchKeyboardProductInUserApp(AdminPanelAllImortPage.java:907)
-	at stepDef.AdminPanelAllImportStepDef.admin_verify_search_keyboard_product_from_should_be_visible_in_user_app(AdminPanelAllImportStepDef.java:107)
-	at ✽.Admin verify Search Keyboard Product  from "SearchProduct.xlsx" should be visible in user app(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/allImport.feature:55)
-Caused by: java.io.UncheckedIOException: java.io.IOException: HTTP/1.1 header parser received no bytes
-	at org.openqa.selenium.remote.http.jdk.JdkHttpClient.execute0(JdkHttpClient.java:500)
-	at org.openqa.selenium.remote.http.AddSeleniumUserAgent.lambda$apply$0(AddSeleniumUserAgent.java:42)
-	at org.openqa.selenium.remote.http.Filter.lambda$andFinally$1(Filter.java:55)
-	at org.openqa.selenium.remote.http.jdk.JdkHttpClient.lambda$executeAsync$2(JdkHttpClient.java:387)
-	at java.base/java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:515)
-	at java.base/java.util.concurrent.FutureTask.run(FutureTask.java:264)
-	at java.base/java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1128)
-	at java.base/java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:628)
-	at java.base/java.lang.Thread.run(Thread.java:829)
-Caused by: java.io.IOException: HTTP/1.1 header parser received no bytes
-	at java.net.http/jdk.internal.net.http.HttpClientImpl.send(HttpClientImpl.java:570)
-	at java.net.http/jdk.internal.net.http.HttpClientFacade.send(HttpClientFacade.java:119)
-	at org.openqa.selenium.remote.http.jdk.JdkHttpClient.execute0(JdkHttpClient.java:459)
-	... 8 more
-Caused by: java.io.IOException: HTTP/1.1 header parser received no bytes
-	at java.net.http/jdk.internal.net.http.common.Utils.wrapWithExtraDetail(Utils.java:351)
-	at java.net.http/jdk.internal.net.http.Http1Response$HeadersReader.onReadError(Http1Response.java:673)
-	at java.net.http/jdk.internal.net.http.Http1AsyncReceiver.checkForErrors(Http1AsyncReceiver.java:297)
-	at java.net.http/jdk.internal.net.http.Http1AsyncReceiver.flush(Http1AsyncReceiver.java:263)
-	at java.net.http/jdk.internal.net.http.common.SequentialScheduler$SynchronizedRestartableTask.run(SequentialScheduler.java:175)
-	at java.net.http/jdk.internal.net.http.common.SequentialScheduler$CompleteRestartableTask.run(SequentialScheduler.java:147)
-	at java.net.http/jdk.internal.net.http.common.SequentialScheduler$SchedulableTask.run(SequentialScheduler.java:198)
-	... 3 more
-Caused by: java.io.IOException: An existing connection was forcibly closed by the remote host
-	at java.base/sun.nio.ch.SocketDispatcher.read0(Native Method)
-	at java.base/sun.nio.ch.SocketDispatcher.read(SocketDispatcher.java:43)
-	at java.base/sun.nio.ch.IOUtil.readIntoNativeBuffer(IOUtil.java:276)
-	at java.base/sun.nio.ch.IOUtil.read(IOUtil.java:245)
-	at java.base/sun.nio.ch.IOUtil.read(IOUtil.java:223)
-	at java.base/sun.nio.ch.SocketChannelImpl.read(SocketChannelImpl.java:356)
-	at java.net.http/jdk.internal.net.http.SocketTube.readAvailable(SocketTube.java:1162)
-	at java.net.http/jdk.internal.net.http.SocketTube$InternalReadPublisher$InternalReadSubscription.read(SocketTube.java:825)
-	at java.net.http/jdk.internal.net.http.SocketTube$SocketFlowTask.run(SocketTube.java:175)
-	at java.net.http/jdk.internal.net.http.common.SequentialScheduler$SchedulableTask.run(SequentialScheduler.java:198)
-	at java.net.http/jdk.internal.net.http.common.SequentialScheduler.runOrSchedule(SequentialScheduler.java:271)
-	at java.net.http/jdk.internal.net.http.common.SequentialScheduler.runOrSchedule(SequentialScheduler.java:224)
-	at java.net.http/jdk.internal.net.http.SocketTube$InternalReadPublisher$InternalReadSubscription.signalReadable(SocketTube.java:766)
-	at java.net.http/jdk.internal.net.http.SocketTube$InternalReadPublisher$ReadEvent.signalEvent(SocketTube.java:949)
-	at java.net.http/jdk.internal.net.http.SocketTube$SocketFlowEvent.handle(SocketTube.java:245)
-	at java.net.http/jdk.internal.net.http.HttpClientImpl$SelectorManager.handleEvent(HttpClientImpl.java:962)
-	at java.net.http/jdk.internal.net.http.HttpClientImpl$SelectorManager.lambda$run$3(HttpClientImpl.java:917)
-	at java.base/java.util.ArrayList.forEach(ArrayList.java:1541)
-	at java.net.http/jdk.internal.net.http.HttpClientImpl$SelectorManager.run(HttpClientImpl.java:917)
-</t>
-  </si>
-  <si>
-    <t>stepDef.Hooks.tearDown(io.cucumber.java.Scenario)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.remote.UnreachableBrowserException: Error communicating with the remote browser. It may have died.
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [cba30ed9bec46ade6c516e229842fec8, screenshot []]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:58762}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:58762/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: cba30ed9bec46ade6c516e229842fec8
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:571)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$z97RxJUg.getScreenshotAs(Unknown Source)
-	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
-	at stepDef.Hooks.tearDown(Hooks.java:298)
-Caused by: java.io.UncheckedIOException: java.net.ConnectException: Connection refused: no further information
-	at org.openqa.selenium.remote.http.jdk.JdkHttpClient.execute0(JdkHttpClient.java:500)
-	at org.openqa.selenium.remote.http.AddSeleniumUserAgent.lambda$apply$0(AddSeleniumUserAgent.java:42)
-	at org.openqa.selenium.remote.http.Filter.lambda$andFinally$1(Filter.java:55)
-	at org.openqa.selenium.remote.http.jdk.JdkHttpClient.lambda$executeAsync$2(JdkHttpClient.java:387)
-	at java.base/java.util.concurrent.Executors$RunnableAdapter.call(Executors.java:515)
-	at java.base/java.util.concurrent.FutureTask.run(FutureTask.java:264)
-	at java.base/java.util.concurrent.ThreadPoolExecutor.runWorker(ThreadPoolExecutor.java:1128)
-	at java.base/java.util.concurrent.ThreadPoolExecutor$Worker.run(ThreadPoolExecutor.java:628)
-	at java.base/java.lang.Thread.run(Thread.java:829)
-Caused by: java.net.ConnectException: Connection refused: no further information
-	at java.net.http/jdk.internal.net.http.HttpClientImpl.send(HttpClientImpl.java:562)
-	at java.net.http/jdk.internal.net.http.HttpClientFacade.send(HttpClientFacade.java:119)
-	at org.openqa.selenium.remote.http.jdk.JdkHttpClient.execute0(JdkHttpClient.java:459)
-	... 8 more
-Caused by: java.net.ConnectException: Connection refused: no further information
-	at java.base/sun.nio.ch.SocketChannelImpl.checkConnect(Native Method)
-	at java.base/sun.nio.ch.SocketChannelImpl.finishConnect(SocketChannelImpl.java:777)
-	at java.net.http/jdk.internal.net.http.PlainHttpConnection$ConnectEvent.handle(PlainHttpConnection.java:128)
-	at java.net.http/jdk.internal.net.http.HttpClientImpl$SelectorManager.handleEvent(HttpClientImpl.java:962)
-	at java.net.http/jdk.internal.net.http.HttpClientImpl$SelectorManager.lambda$run$3(HttpClientImpl.java:917)
-	at java.base/java.util.ArrayList.forEach(ArrayList.java:1541)
-	at java.net.http/jdk.internal.net.http.HttpClientImpl$SelectorManager.run(HttpClientImpl.java:917)
-</t>
-  </si>
-  <si>
-    <t>Then the products from "Auto Product2.xlsx" should be visible in admin panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;a href="#" class="nav-link dropdown-toggle" data-toggle="dropdown" role="button" aria-haspopup="true" aria-expanded="false"&gt;...&lt;/a&gt; is not clickable at point (1352, 353). Other element would receive the click: &lt;div class="modal fade show" id="productImport" data-backdrop="static" data-keyboard="false" tabindex="-1" aria-labelledby="productImportLabel" aria-modal="true" role="dialog" style="padding-right: 15px; display: block;"&gt;...&lt;/div&gt;
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8d6a18974ab98e54add996afa4c2f875, clickElement {id=f.E0DFC79DE95EFE5D42C1980958218D59.d.EBAEBC65A50BDF249816286873A8864A.e.8497}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59361}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59361/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (8d6a18974ab98e54add996afa4c2f875)] -&gt; xpath: //a[normalize-space()='SKU']]
-Session ID: 8d6a18974ab98e54add996afa4c2f875
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
-	at jdk.internal.reflect.GeneratedMethodAccessor100.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$bYuGr5Ui.click(Unknown Source)
-	at jdk.internal.reflect.GeneratedMethodAccessor100.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
-	at com.sun.proxy.$Proxy50.click(Unknown Source)
-	at pages.AdminPanelPage.verifyProductsInAdmin(AdminPanelPage.java:1016)
-	at stepDef.AdminPanelStepDef.the_products_from_should_be_visible_in_admin_panel(AdminPanelStepDef.java:138)
-	at ✽.the products from "Auto Product2.xlsx" should be visible in admin panel(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/bannerReflecting.feature:57)
-</t>
-  </si>
-  <si>
-    <t>Then I verify both exported files "NewProductAdd1.xlsx" and "NewProductAdd2.xlsx" have matching product names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.lang.AssertionError: Products mismatch found.
-	at org.junit.Assert.fail(Assert.java:89)
-	at pages.AdminPanelExportExcelFileMatchPage.verifyExportedProductsMatch(AdminPanelExportExcelFileMatchPage.java:215)
-	at stepDef.AdminPanelExportExcelStepDef.i_verify_both_exported_files_and_have_matching_product_names(AdminPanelExportExcelStepDef.java:44)
-	at ✽.I verify both exported files "NewProductAdd1.xlsx" and "NewProductAdd2.xlsx" have matching product names(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/exportExcelFile.feature:10)
-</t>
-  </si>
-  <si>
-    <t>Then I verify the product appears on the User App Influencer page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id: session deleted as the browser has closed the connection
-from disconnected: not connected to DevTools
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0657d30fa07abc964d006f4fc8531543, refresh {}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57430/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0657d30fa07abc964d006f4fc8531543
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver$RemoteNavigation.refresh(RemoteWebDriver.java:1086)
-	at jdk.internal.reflect.GeneratedMethodAccessor219.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$mFI3wPWP.refresh(Unknown Source)
-	at pages.AdminPanelInfluencerPage.lambda$0(AdminPanelInfluencerPage.java:304)
-	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
-	at pages.AdminPanelInfluencerPage.verifyFirstProductInUserAppInfluencer(AdminPanelInfluencerPage.java:303)
-	at stepDef.AdminPanelInfluencerStepDef.i_verify_the_product_appears_on_the_user_app_influencer_page(AdminPanelInfluencerStepDef.java:38)
-	at ✽.I verify the product appears on the User App Influencer page(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/influencer.feature:8)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0657d30fa07abc964d006f4fc8531543, screenshot {}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57430/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0657d30fa07abc964d006f4fc8531543
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$f2Hzhg2k.getScreenshotAs(Unknown Source)
-	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
-	at stepDef.Hooks.tearDown(Hooks.java:298)
-</t>
-  </si>
-  <si>
-    <t>Then I should see the same product appear first in the User Application category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [982e562f58c96fc257b52059b629e1d8, findElements {using=xpath, value=//div[@id='cls_newproduct_sec_dev']/div[contains(@class,'product_list_cards_list')][1]//h2[@class='product_list_cards_heading']}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63981}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63981/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 982e562f58c96fc257b52059b629e1d8
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElements(ElementLocation.java:182)
-	at org.openqa.selenium.remote.ElementLocation.findElements(ElementLocation.java:103)
-	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:380)
-	at org.openqa.selenium.remote.RemoteWebDriver.findElements(RemoteWebDriver.java:374)
-	at jdk.internal.reflect.GeneratedMethodAccessor182.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$njshPuOW.findElements(Unknown Source)
-	at pages.AdminPanelSortingPage.lambda$0(AdminPanelSortingPage.java:233)
-	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
-	at pages.AdminPanelSortingPage.verifyFirstProductInUserApp(AdminPanelSortingPage.java:229)
-	at stepDef.AdminPanelSortingStepDef.i_should_see_the_same_product_appear_first_in_the_user_application_category(AdminPanelSortingStepDef.java:29)
-	at ✽.I should see the same product appear first in the User Application category(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:9)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchWindowException: no such window: target window already closed
-from unknown error: web view not found
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [982e562f58c96fc257b52059b629e1d8, screenshot {}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63981}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63981/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 982e562f58c96fc257b52059b629e1d8
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$njshPuOW.getScreenshotAs(Unknown Source)
-	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
-	at stepDef.Hooks.tearDown(Hooks.java:298)
-</t>
-  </si>
-  <si>
-    <t>Then I should see the same product appear first in the User Application All Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id: session deleted as the browser has closed the connection
-from disconnected: not connected to DevTools
-  (Session info: chrome=140.0.7339.208)
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8636cd98415f8655c152d68e50aad9c0, refresh {}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64259}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64259/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8636cd98415f8655c152d68e50aad9c0
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver$RemoteNavigation.refresh(RemoteWebDriver.java:1086)
-	at jdk.internal.reflect.GeneratedMethodAccessor219.invoke(Unknown Source)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$Y9Fw2IBF.refresh(Unknown Source)
-	at pages.AdminPanelSortingPage.lambda$4(AdminPanelSortingPage.java:885)
-	at org.openqa.selenium.support.ui.FluentWait.until(FluentWait.java:203)
-	at pages.AdminPanelSortingPage.verifyFirstProductInUserAppAllProduct(AdminPanelSortingPage.java:884)
-	at stepDef.AdminPanelSortingStepDef.i_should_see_the_same_product_appear_first_in_the_user_application_All_Product(AdminPanelSortingStepDef.java:77)
-	at ✽.I should see the same product appear first in the User Application All Product(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/AdminFeature/sortingProduct.feature:53)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.NoSuchSessionException: invalid session id
-Build info: version: '4.34.0', revision: '707dcb4246*'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8636cd98415f8655c152d68e50aad9c0, screenshot {}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64259}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64259/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8636cd98415f8655c152d68e50aad9c0
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:617)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:621)
-	at org.openqa.selenium.remote.RemoteWebDriver.getScreenshotAs(RemoteWebDriver.java:333)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
-	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
-	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
-	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
-	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$XGWadm7M.getScreenshotAs(Unknown Source)
-	at utils.ExcelReportUtil.captureScreenshot(ExcelReportUtil.java:68)
-	at stepDef.Hooks.tearDown(Hooks.java:298)
-</t>
+    <t>@sanity</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_03</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_04</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_05</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_06</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_07</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_08</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_09</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_10</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_11</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_12</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_13</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_14</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_15</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_16</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_17</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_18</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_19</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_20</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_21</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_Signup_22</t>
+  </si>
+  <si>
+    <t>4 m 15.401 s</t>
   </si>
   <si>
     <t>Given User Signup with all valid data</t>
@@ -1054,12 +602,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <i val="true"/>
     </font>
     <font>
@@ -1076,6 +618,12 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1374,7 +922,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1383,7 +931,7 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1529,31 +1077,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$27</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
               </c:strCache>
@@ -1561,13 +1088,8 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20:$B$27</c:f>
-              <c:numCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$B$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1623,31 +1145,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$27</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
               </c:strCache>
@@ -1655,7 +1156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20:$D$27</c:f>
+              <c:f>'DB Data'!$D$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1712,31 +1213,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$27</c:f>
+              <c:f>'DB Data'!$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
               </c:strCache>
@@ -1744,31 +1224,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20:$C$27</c:f>
+              <c:f>'DB Data'!$C$20</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1981,25 +1440,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$27</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>This is Negative SignUp feature</c:v>
                 </c:pt>
               </c:strCache>
@@ -2007,17 +1451,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22:$F$27</c:f>
+              <c:f>Features!$F$22</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,25 +1512,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$27</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>This is Negative SignUp feature</c:v>
                 </c:pt>
               </c:strCache>
@@ -2100,7 +1523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22:$H$27</c:f>
+              <c:f>Features!$H$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2156,25 +1579,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$27</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>This is Negative SignUp feature</c:v>
                 </c:pt>
               </c:strCache>
@@ -2182,25 +1590,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22:$G$27</c:f>
+              <c:f>Features!$G$22</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3351,25 +2744,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20:$H$25</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>This is Negative SignUp feature</c:v>
                 </c:pt>
               </c:strCache>
@@ -3377,17 +2755,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$J$20:$J$25</c:f>
+              <c:f>'DB Data'!$J$20</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,25 +2816,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20:$H$25</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>This is Negative SignUp feature</c:v>
                 </c:pt>
               </c:strCache>
@@ -3470,7 +2827,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$L$20:$L$25</c:f>
+              <c:f>'DB Data'!$L$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3526,25 +2883,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20:$H$25</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Import Functionality Verify that different entities (Categories, Products, Product Styles, Search Keywords, Collections) can be successfully uploaded via Excel and are reflected in both Admin and User App.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Home Page Banner upload verification admin panel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Admin Export The Excel File and Check with Veiw All Export Excel File Check Wheather its Matching .</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Admin can update product influencer status and verify in User App</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Admin Sorting The Product in Admin Panel Verify Successful Sort In User App.</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>This is Negative SignUp feature</c:v>
                 </c:pt>
               </c:strCache>
@@ -3552,25 +2894,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$K$20:$K$25</c:f>
+              <c:f>'DB Data'!$K$20</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3785,28 +3112,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$26</c:f>
+              <c:f>'DB Data'!$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
               </c:strCache>
@@ -3814,28 +3123,8 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20:$R$26</c:f>
-              <c:numCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3890,28 +3179,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$26</c:f>
+              <c:f>'DB Data'!$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
               </c:strCache>
@@ -3919,13 +3190,8 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20:$T$26</c:f>
-              <c:numCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3980,28 +3246,10 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$26</c:f>
+              <c:f>'DB Data'!$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
               </c:strCache>
@@ -4009,28 +3257,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20:$S$26</c:f>
+              <c:f>'DB Data'!$S$20</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4995,151 +4225,145 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$44</c:f>
+              <c:f>Scenarios!$B$22:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADI_02 |Verify Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_ADI_03 |Verify Product Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADI_04 |Verify All Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ADI_06 |Verify Search Keyboard Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_06"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_ADM_03 |Verify New Arrivals Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_ADM_06 |Remove product SKU from Top Selling and verify on User App.| "TD_UI_Zlaata_ADM_06"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$44</c:f>
+              <c:f>Scenarios!$H$22:$H$43</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
+                <c:ptCount val="22"/>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,90 +4420,82 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$44</c:f>
+              <c:f>Scenarios!$B$22:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADI_02 |Verify Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_ADI_03 |Verify Product Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADI_04 |Verify All Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ADI_06 |Verify Search Keyboard Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_06"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_ADM_03 |Verify New Arrivals Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_ADM_06 |Remove product SKU from Top Selling and verify on User App.| "TD_UI_Zlaata_ADM_06"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$44</c:f>
-              <c:numCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Scenarios!$J$22:$J$43</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5334,105 +4550,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$44</c:f>
+              <c:f>Scenarios!$B$22:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_ADI_01 |Verify Categories import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_ADI_02 |Verify Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_ADI_03 |Verify Product Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_ADI_04 |Verify All Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_ADI_05 |Verify Search Keyboard Product import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_ADI_06 |Verify Search Keyboard Collection import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_06"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_ADI_07 |Verify Search Keyboard Style import uploaded appear in Admin and User App.| "TD_UI_Zlaata_ADI_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_ADM_02 |Verify Top Selling Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_ADM_03 |Verify New Arrivals Section Product Display on Homepage.| "TD_UI_Zlaata_ADM_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_ADM_04 |Verify Category Section Display on Website.| "TD_UI_Zlaata_ADM_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_ADM_05 |Verify bulk product upload and visibility.| "TD_UI_Zlaata_ADM_05"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_ADM_06 |Remove product SKU from Top Selling and verify on User App.| "TD_UI_Zlaata_ADM_06"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_ADM_07 |Verify all uploaded Special Timer products appear in Admin and User App.| "TD_UI_Zlaata_ADM_07"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_ADM_08 |Verify uploaded categories appear in Admin and User App.| "TD_UI_Zlaata_ADM_08"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_ADM_09 |Verify bulk uploaded Collection appear in Admin and User App.| "TD_UI_Zlaata_ADM_09"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_EEF_01 |Verify New Product added match between two exports.| "TD_UI_Zlaata_EEF_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_ADMI_01 |Update a product as influencer and verify in User App| "TD_UI_Zlaata_ADMI_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_ASP_01 |Verify category product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_ASP_02 |Verify Collection product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_02"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_ASP_03 |Verify Styles product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_03"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_ASP_04 |Verify Micro Page product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_04"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_ASP_05 |Verify All product sorting between Admin Panel and User Application.| "TD_UI_Zlaata_ASP_05"</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$44</c:f>
+              <c:f>Scenarios!$I$22:$I$43</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5834,100 +5029,91 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$46</c:f>
+              <c:f>Tags!$B$22:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADI_02</c:v>
+                  <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_ADI_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADI_04</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ADI_06</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>@Positive</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_ADM_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_ADM_06</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_ADM_09</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_ASP_02</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_ASP_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$46</c:f>
+              <c:f>Tags!$D$22:$D$44</c:f>
               <c:numCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>16.0</c:v>
-                </c:pt>
+                <c:ptCount val="23"/>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0</c:v>
@@ -5935,6 +5121,9 @@
                 <c:pt idx="4">
                   <c:v>1.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5953,6 +5142,9 @@
                 <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5963,6 +5155,15 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
@@ -6029,90 +5230,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$46</c:f>
+              <c:f>Tags!$B$22:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADI_02</c:v>
+                  <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_ADI_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADI_04</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ADI_06</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>@Positive</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_ADM_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_ADM_06</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_ADM_09</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_ASP_02</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_ASP_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$46</c:f>
+              <c:f>Tags!$F$22:$F$44</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -6168,114 +5363,87 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$46</c:f>
+              <c:f>Tags!$B$22:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>@Regression</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_ADI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_ADI_02</c:v>
+                  <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_ADI_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_ADI_04</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_ADI_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_ADI_06</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_ADI_07</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_ADM_02</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>@Positive</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_ADM_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_ADM_04</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_ADM_05</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_ADM_06</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_ADM_07</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_ADM_08</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_ADM_09</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_EEF_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_ADMI_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_ASP_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_ASP_02</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_ASP_03</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_ASP_04</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>@TC_UI_Zlaata_ASP_05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$46</c:f>
+              <c:f>Tags!$E$22:$E$44</c:f>
               <c:numCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6419,13 +5587,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6451,13 +5619,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9939,7 +9107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G81"/>
+  <dimension ref="B19:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9980,385 +9148,74 @@
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="52" t="s">
         <v>73</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G39" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="49"/>
-      <c r="C40" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="53" t="s">
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="49"/>
-      <c r="C41" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="53" t="s">
+      <c r="E62" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="49"/>
+      <c r="G62" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="49"/>
-      <c r="C42" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="49"/>
-      <c r="C43" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="49"/>
-      <c r="C45" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="73" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="38"/>
-      <c r="G74" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="49"/>
-      <c r="G75" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="49"/>
-      <c r="G76" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="49"/>
-      <c r="G81" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="C58F" scenarios="true" objects="true"/>
-  <mergeCells count="33">
+  <sheetProtection sheet="true" password="E849" scenarios="true" objects="true"/>
+  <mergeCells count="8">
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10369,7 +9226,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J44"/>
+  <dimension ref="B20:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -10435,592 +9292,553 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>95</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H22" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="57"/>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>97</v>
+      <c r="D23" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>99</v>
+      <c r="D24" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H24" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>101</v>
+      <c r="D25" s="54" t="s">
+        <v>81</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H25" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>102</v>
+      <c r="C26" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H26" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I26" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J26" s="58"/>
+      <c r="H26" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="55" t="s">
-        <v>104</v>
+      <c r="D27" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H27" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="55" t="s">
-        <v>106</v>
+      <c r="D28" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H28" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>108</v>
+      <c r="D29" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H29" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30">
       <c r="B30" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>110</v>
+      <c r="D30" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H30" s="56" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31">
       <c r="B31" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>112</v>
+      <c r="D31" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H31" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32">
       <c r="B32" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>113</v>
+        <v>94</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>95</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H32" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I32" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J32" s="58" t="n">
+      <c r="H32" s="55" t="n">
         <v>1.0</v>
       </c>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
     </row>
     <row r="33">
       <c r="B33" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>115</v>
+      <c r="D33" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H33" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34">
       <c r="B34" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="55" t="s">
-        <v>117</v>
+      <c r="D34" s="54" t="s">
+        <v>99</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H34" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35">
       <c r="B35" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>119</v>
+      <c r="D35" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F35" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H35" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36">
       <c r="B36" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="55" t="s">
-        <v>121</v>
+      <c r="D36" s="54" t="s">
+        <v>103</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F36" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H36" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37">
       <c r="B37" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>105</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F37" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H37" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I37" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J37" s="58"/>
+      <c r="H37" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57"/>
     </row>
     <row r="38">
       <c r="B38" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>107</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F38" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H38" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I38" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J38" s="58"/>
+      <c r="H38" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="57"/>
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G39" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H39" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I39" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J39" s="58"/>
+      <c r="H39" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40">
       <c r="B40" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="55" t="s">
-        <v>126</v>
+      <c r="D40" s="54" t="s">
+        <v>111</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F40" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H40" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
     </row>
     <row r="41">
       <c r="B41" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="55" t="s">
-        <v>128</v>
+      <c r="D41" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F41" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H41" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I41" s="57"/>
-      <c r="J41" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H41" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="57"/>
     </row>
     <row r="42">
       <c r="B42" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="55" t="s">
-        <v>130</v>
+      <c r="D42" s="54" t="s">
+        <v>115</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F42" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G42" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H42" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="H42" s="55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I42" s="56"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43">
       <c r="B43" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>117</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F43" s="53" t="s">
         <v>40</v>
       </c>
       <c r="G43" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H43" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I43" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="50" t="n">
+      <c r="H43" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J44" s="58"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11037,7 +9855,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:I97"/>
+  <dimension ref="B20:I90"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -11086,439 +9904,441 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="50" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D22" s="56" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E22" s="57" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F22" s="58"/>
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="57"/>
       <c r="G22" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="56" t="n">
+      <c r="D23" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C24" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
+        <v>20.0</v>
+      </c>
+      <c r="D24" s="55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D25" s="56" t="n">
+      <c r="D25" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D26" s="56" t="n">
+      <c r="D26" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57" t="n">
+      <c r="D27" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="59" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C28" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D28" s="56" t="n">
+      <c r="D28" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C29" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D29" s="56" t="n">
+      <c r="D29" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="51" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C30" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D30" s="56" t="n">
+      <c r="D30" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="51" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C31" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D31" s="56" t="n">
+      <c r="D31" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="51" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C32" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D32" s="56" t="n">
+      <c r="D32" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="51" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C33" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D33" s="56" t="n">
+      <c r="D33" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="51" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C34" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57" t="n">
+      <c r="D34" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="59" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="51" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C35" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D35" s="56" t="n">
+      <c r="D35" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="51" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C36" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D36" s="56" t="n">
+      <c r="D36" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="51" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C37" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D37" s="56" t="n">
+      <c r="D37" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="51" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C38" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D38" s="56" t="n">
+      <c r="D38" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C39" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57" t="n">
+      <c r="D39" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="59" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="51" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C40" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57" t="n">
+      <c r="D40" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="59" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="51" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C41" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57" t="n">
+      <c r="D41" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="59" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="51" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C42" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D42" s="56" t="n">
+      <c r="D42" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="51" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C43" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D43" s="56" t="n">
+      <c r="D43" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="59" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="51" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C44" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D44" s="56" t="n">
+      <c r="D44" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C48" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="34" t="s">
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I48" s="34" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>73</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
       <c r="H51" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11530,9 +10350,9 @@
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I52" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11544,9 +10364,9 @@
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I53" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11558,9 +10378,9 @@
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
       <c r="H54" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11571,11 +10391,11 @@
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
-      <c r="H55" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="53" t="s">
-        <v>40</v>
+      <c r="H55" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56">
@@ -11586,9 +10406,9 @@
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
       <c r="H56" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="I56" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11600,25 +10420,23 @@
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
       <c r="H57" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="I57" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="49"/>
-      <c r="C58" s="52" t="s">
-        <v>83</v>
-      </c>
+      <c r="C58" s="49"/>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="I58" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11630,9 +10448,9 @@
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
       <c r="H59" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11644,9 +10462,9 @@
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
       <c r="H60" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11657,11 +10475,11 @@
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
-      <c r="H61" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="53" t="s">
-        <v>40</v>
+      <c r="H61" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -11672,9 +10490,9 @@
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
       <c r="H62" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11686,9 +10504,9 @@
       <c r="F63" s="49"/>
       <c r="G63" s="49"/>
       <c r="H63" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11700,9 +10518,9 @@
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
       <c r="H64" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="I64" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11714,58 +10532,52 @@
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
       <c r="H65" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="I65" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="49"/>
-      <c r="C66" s="52" t="s">
-        <v>85</v>
-      </c>
+      <c r="C66" s="49"/>
       <c r="D66" s="49"/>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
-      <c r="H66" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="I66" s="53" t="s">
-        <v>40</v>
+      <c r="H66" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I66" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="49"/>
-      <c r="C67" s="52" t="s">
-        <v>87</v>
-      </c>
+      <c r="C67" s="49"/>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
-      <c r="H67" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>40</v>
+      <c r="H67" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="49"/>
-      <c r="C68" s="52" t="s">
-        <v>89</v>
-      </c>
+      <c r="C68" s="49"/>
       <c r="D68" s="49"/>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49"/>
-      <c r="H68" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="53" t="s">
-        <v>40</v>
+      <c r="H68" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69">
@@ -11776,9 +10588,9 @@
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
       <c r="H69" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="I69" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="58" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11790,499 +10602,383 @@
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
       <c r="H70" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I70" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>73</v>
+      </c>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
       <c r="H71" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I71" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>73</v>
+      </c>
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
-      <c r="H72" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="53" t="s">
-        <v>40</v>
+      <c r="H72" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="49"/>
+      <c r="B73" s="51" t="s">
+        <v>123</v>
+      </c>
       <c r="C73" s="52" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
-      <c r="H73" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="I73" s="53" t="s">
-        <v>40</v>
+      <c r="H73" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="51" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
       <c r="G74" s="49"/>
       <c r="H74" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I74" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="51" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
       <c r="G75" s="49"/>
       <c r="H75" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="51" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
       <c r="G76" s="49"/>
       <c r="H76" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I76" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="51" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
       <c r="G77" s="49"/>
       <c r="H77" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I77" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="51" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
       <c r="G78" s="49"/>
-      <c r="H78" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I78" s="53" t="s">
-        <v>40</v>
+      <c r="H78" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="51" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
       <c r="G79" s="49"/>
       <c r="H79" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="51" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="49"/>
       <c r="H80" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="I80" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="51" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
       <c r="G81" s="49"/>
       <c r="H81" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="I81" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I81" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="51" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D82" s="49"/>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
       <c r="G82" s="49"/>
       <c r="H82" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="I82" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="51" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
       <c r="G83" s="49"/>
       <c r="H83" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="I83" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="51" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D84" s="49"/>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
       <c r="H84" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I84" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="51" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D85" s="49"/>
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
       <c r="G85" s="49"/>
-      <c r="H85" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="I85" s="53" t="s">
-        <v>40</v>
+      <c r="H85" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="51" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D86" s="49"/>
       <c r="E86" s="49"/>
       <c r="F86" s="49"/>
       <c r="G86" s="49"/>
       <c r="H86" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I86" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="51" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D87" s="49"/>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
       <c r="G87" s="49"/>
       <c r="H87" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I87" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I87" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="51" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
       <c r="F88" s="49"/>
       <c r="G88" s="49"/>
       <c r="H88" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="I88" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="I88" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="51" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="49"/>
       <c r="F89" s="49"/>
       <c r="G89" s="49"/>
       <c r="H89" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="I89" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I89" s="58" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="51" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D90" s="49"/>
       <c r="E90" s="49"/>
       <c r="F90" s="49"/>
       <c r="G90" s="49"/>
-      <c r="H90" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="I90" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="I91" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I92" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="I93" s="54" t="s">
+      <c r="H90" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" s="58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94">
-      <c r="B94" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I94" s="54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="I95" s="54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="I96" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="I97" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="28">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
-    <mergeCell ref="B51:B73"/>
-    <mergeCell ref="C51:G57"/>
-    <mergeCell ref="C58:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G72"/>
+    <mergeCell ref="B51:B70"/>
+    <mergeCell ref="C51:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="C74:G74"/>
     <mergeCell ref="C75:G75"/>
@@ -12301,13 +10997,6 @@
     <mergeCell ref="C88:G88"/>
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12318,7 +11007,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B18:M27"/>
+  <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -12398,201 +11087,37 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>151</v>
+      <c r="D22" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="E22" s="50" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F22" s="56" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G22" s="57" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" s="55" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="59" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="J22" s="50" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="K22" s="56" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L22" s="57" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K22" s="55" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="M22" s="58"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="50" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F23" s="56" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G23" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="J23" s="50" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K23" s="56" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L23" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="58" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="50" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K24" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L24" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="58"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K25" s="56" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L25" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="58"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F26" s="56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G26" s="57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="50" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K26" s="56" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L26" s="57" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M26" s="58"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="58"/>
+      <c r="M22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12608,7 +11133,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -12639,151 +11164,20 @@
     </row>
     <row r="3">
       <c r="B3" s="52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="49"/>
-      <c r="C11" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="A6C5" scenarios="true" objects="true"/>
-  <mergeCells count="7">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-  </mergeCells>
+  <sheetProtection sheet="true" password="85AF" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12841,13 +11235,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>74.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12861,19 +11255,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12894,9 +11288,7 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -12909,19 +11301,19 @@
         <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>82.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12938,7 +11330,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -12998,248 +11390,43 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="49">
-        <v>73</v>
-      </c>
-      <c r="B20" s="50" t="n">
-        <v>16.0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B20" s="50"/>
       <c r="C20" s="50" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="50"/>
       <c r="H20" t="s" s="49">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="49">
         <v>40</v>
       </c>
       <c r="J20" s="50" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="K20" s="50" t="n">
         <v>1.0</v>
       </c>
       <c r="L20" s="50"/>
       <c r="P20" t="s" s="49">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q20" t="s" s="49">
         <v>40</v>
       </c>
-      <c r="R20" s="50" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="R20" s="50"/>
       <c r="S20" s="50" t="n">
         <v>1.0</v>
       </c>
       <c r="T20" s="50"/>
     </row>
-    <row r="21">
-      <c r="A21" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="H21" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="50" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K21" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="P21" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S21" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T21" s="50" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="H22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="50"/>
-      <c r="P22" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q22" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S22" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T22" s="50"/>
-    </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="H23" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="50"/>
-      <c r="P23" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S23" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T23" s="50"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="H24" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="50" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K24" s="50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L24" s="50"/>
-      <c r="P24" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R24" s="50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S24" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T24" s="50"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="H25" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L25" s="50"/>
-      <c r="P25" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S25" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T25" s="50"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="P26" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q26" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T26" s="50"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="50"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="103">
   <si>
     <t>Duration</t>
   </si>
@@ -229,238 +229,235 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Oct 06, 2025 5:05:35 PM</t>
+    <t>Oct 07, 2025 12:16:06 PM</t>
   </si>
   <si>
-    <t>Oct 06, 2025 5:01:17 PM</t>
+    <t>Oct 07, 2025 12:12:00 PM</t>
   </si>
   <si>
-    <t>Oct 06, 2025 5:05:33 PM</t>
+    <t>Oct 07, 2025 12:16:04 PM</t>
   </si>
   <si>
-    <t>4 m 16.301 s</t>
+    <t>4 m 4.313 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>95%</t>
+    <t>57%</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_01</t>
+    <t>@sanity</t>
   </si>
   <si>
-    <t>This is Negative SignUp feature</t>
+    <t>@TC_UI_Zlaata_FS_05</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</t>
+    <t>@TC_UI_Zlaata_FS_06</t>
   </si>
   <si>
-    <t>3.841 s</t>
+    <t>@TC_UI_Zlaata_FS_07</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</t>
+    <t>This is Footer Section feature</t>
   </si>
   <si>
-    <t>12.628 s</t>
+    <t>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</t>
+    <t>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</t>
   </si>
   <si>
-    <t>19.104 s</t>
+    <t>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</t>
+    <t>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</t>
   </si>
   <si>
-    <t>9.365 s</t>
+    <t>1 m 45.401 s</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</t>
+    <t>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</t>
   </si>
   <si>
-    <t>14.076 s</t>
+    <t>45.080 s</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</t>
+    <t>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</t>
   </si>
   <si>
-    <t>15.957 s</t>
+    <t>35.824 s</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</t>
+    <t>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</t>
   </si>
   <si>
-    <t>8.820 s</t>
+    <t>15.007 s</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</t>
+    <t>14.287 s</t>
   </si>
   <si>
-    <t>12.383 s</t>
+    <t>15.884 s</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</t>
+    <t>11.738 s</t>
   </si>
   <si>
-    <t>11.717 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</t>
-  </si>
-  <si>
-    <t>9.856 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</t>
-  </si>
-  <si>
-    <t>13.048 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</t>
-  </si>
-  <si>
-    <t>14.994 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</t>
-  </si>
-  <si>
-    <t>7.061 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</t>
-  </si>
-  <si>
-    <t>7.138 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</t>
-  </si>
-  <si>
-    <t>8.260 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</t>
-  </si>
-  <si>
-    <t>14.293 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</t>
-  </si>
-  <si>
-    <t>8.456 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</t>
-  </si>
-  <si>
-    <t>13.997 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</t>
-  </si>
-  <si>
-    <t>15.452 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</t>
-  </si>
-  <si>
-    <t>5.966 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</t>
-  </si>
-  <si>
-    <t>17.869 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</t>
-  </si>
-  <si>
-    <t>10.781 s</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_02</t>
+    <t>@TC_UI_Zlaata_FS_01</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>@sanity</t>
+    <t>@TC_UI_Zlaata_FS_02</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_03</t>
+    <t>@TC_UI_Zlaata_FS_03</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_04</t>
+    <t>@TC_UI_Zlaata_FS_04</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_05</t>
+    <t>4 m 3.508 s</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_06</t>
+    <t>Given User enters a new valid email ID in the newsletter subscription field</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_07</t>
+    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;input type="text" placeholder="Enter your E-mail ID" id="subscribeletter" class="newsletter_input_field cls_email_signup" data-source="footer" oninput="cleanEmailInput(this);"&gt; is not clickable at point (683, 158). Other element would receive the click: &lt;ul class="navigation_menu_grp"&gt;...&lt;/ul&gt;
+  (Session info: chrome=140.0.7339.208)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8f6e91ccb6282e4946f58b180c20acc1, clickElement {id=f.0C8BECF1BB93A8071DB2B621A8180A92.d.17A1E8F5EB9BFDF1267BB680647DE1BC.e.38}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61518}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61518/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (8f6e91ccb6282e4946f58b180c20acc1)] -&gt; id: subscribeletter]
+Session ID: 8f6e91ccb6282e4946f58b180c20acc1
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$mu90m4X0.click(Unknown Source)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
+	at com.sun.proxy.$Proxy51.click(Unknown Source)
+	at basePage.BasePage.click(BasePage.java:78)
+	at pages.FooterPage.footerSubscribe(FooterPage.java:244)
+	at stepDef.FooterStepdef.user_enters_a_new_valid_email_id_in_the_newsletter_subscription_field(FooterStepdef.java:73)
+	at ✽.User enters a new valid email ID in the newsletter subscription field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/FooterSection/footer.feature:57)
+</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_08</t>
+    <t>Given User enters an already subscribed email ID in the newsletter subscription field</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_09</t>
+    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;input type="text" placeholder="Enter your E-mail ID" id="subscribeletter" class="newsletter_input_field cls_email_signup" data-source="footer" oninput="cleanEmailInput(this);"&gt; is not clickable at point (683, 158). Other element would receive the click: &lt;ul class="navigation_menu_grp"&gt;...&lt;/ul&gt;
+  (Session info: chrome=140.0.7339.208)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [21de8c4fb04de51dba1ad761b29df152, clickElement {id=f.29F3E190DC3693AACAA290879BF37CC7.d.D6ED5DD8FFE68855BB38437A32290530.e.30}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50689}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50689/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (21de8c4fb04de51dba1ad761b29df152)] -&gt; id: subscribeletter]
+Session ID: 21de8c4fb04de51dba1ad761b29df152
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$Vb1nwA9o.click(Unknown Source)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
+	at com.sun.proxy.$Proxy51.click(Unknown Source)
+	at basePage.BasePage.click(BasePage.java:78)
+	at pages.FooterPage.footerSubscribeAlready(FooterPage.java:259)
+	at stepDef.FooterStepdef.user_enters_an_already_subscribed_email_id_in_the_newsletter_subscription_field(FooterStepdef.java:80)
+	at ✽.User enters an already subscribed email ID in the newsletter subscription field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/FooterSection/footer.feature:66)
+</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_10</t>
+    <t>Given User enters an invalid email ID in the newsletter subscription field</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_11</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_12</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_13</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_14</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_15</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_16</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_17</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_18</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_19</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_20</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_21</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_22</t>
-  </si>
-  <si>
-    <t>4 m 15.401 s</t>
-  </si>
-  <si>
-    <t>Given User Signup with all valid data</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;input type="text" placeholder="Enter your E-mail ID" id="subscribeletter" class="newsletter_input_field cls_email_signup" data-source="footer" oninput="cleanEmailInput(this);"&gt; is not clickable at point (683, 158). Other element would receive the click: &lt;ul class="navigation_menu_grp"&gt;...&lt;/ul&gt;
+  (Session info: chrome=140.0.7339.208)
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ad2c81899530b107d5e3eddd88fea311, clickElement {id=f.2F5A2158A311E70870B0C1AC132F89EE.d.CF79B2B6101A326307A39477025AA1F9.e.36}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57931}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57931/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (ad2c81899530b107d5e3eddd88fea311)] -&gt; id: subscribeletter]
+Session ID: ad2c81899530b107d5e3eddd88fea311
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$wbccNi35.click(Unknown Source)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
+	at com.sun.proxy.$Proxy51.click(Unknown Source)
+	at basePage.BasePage.click(BasePage.java:78)
+	at pages.FooterPage.invalidMail(FooterPage.java:271)
+	at stepDef.FooterStepdef.user_enters_an_invalid_email_id_in_the_newsletter_subscription_field(FooterStepdef.java:87)
+	at ✽.User enters an invalid email ID in the newsletter subscription field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/FooterSection/footer.feature:75)
+</t>
   </si>
 </sst>
 </file>
@@ -602,6 +599,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color rgb="00FF00"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <i val="true"/>
     </font>
     <font>
@@ -618,12 +621,6 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -922,7 +919,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -931,7 +928,7 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1077,19 +1074,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@sanity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1145,18 +1156,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@sanity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20</c:f>
+              <c:f>'DB Data'!$D$20:$D$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1213,21 +1233,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@sanity</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20</c:f>
+              <c:f>'DB Data'!$C$20:$C$23</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1444,7 +1482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>This is Footer Section feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1455,7 +1493,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,7 +1554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>This is Footer Section feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1583,7 +1621,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>This is Footer Section feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1594,7 +1632,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2748,7 +2786,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>This is Footer Section feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2759,7 +2797,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,7 +2858,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>This is Footer Section feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2887,7 +2925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>This is Footer Section feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2898,7 +2936,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,18 +3150,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$R$20:$R$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3179,18 +3223,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
+              <c:f>'DB Data'!$T$20:$T$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3246,21 +3296,33 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$22</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
+              <c:f>'DB Data'!$S$20:$S$22</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4225,83 +4287,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$43</c:f>
+              <c:f>Scenarios!$B$22:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$43</c:f>
+              <c:f>Scenarios!$H$22:$H$28</c:f>
               <c:numCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -4309,60 +4329,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4420,81 +4386,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$43</c:f>
+              <c:f>Scenarios!$B$22:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$43</c:f>
+              <c:f>Scenarios!$J$22:$J$28</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4550,84 +4471,45 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$43</c:f>
+              <c:f>Scenarios!$B$22:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
+                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$43</c:f>
+              <c:f>Scenarios!$I$22:$I$28</c:f>
               <c:numCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
+                <c:ptCount val="7"/>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5029,150 +4911,54 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$44</c:f>
+              <c:f>Tags!$B$22:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
+                  <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@sanity</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$44</c:f>
+              <c:f>Tags!$D$22:$D$29</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5230,84 +5016,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$44</c:f>
+              <c:f>Tags!$B$22:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
+                  <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@sanity</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$44</c:f>
+              <c:f>Tags!$F$22:$F$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -5363,87 +5104,51 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$44</c:f>
+              <c:f>Tags!$B$22:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
+                  <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@sanity</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
+                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$44</c:f>
+              <c:f>Tags!$E$22:$E$29</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5587,13 +5292,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5619,13 +5324,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9107,7 +8812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G62"/>
+  <dimension ref="B19:G69"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9148,74 +8853,177 @@
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+    <row r="40">
+      <c r="B40" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
+    <row r="41">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="65" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B65" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="36" t="s">
+    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="8" t="s">
+      <c r="C66" s="38"/>
+      <c r="D66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E66" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="8" t="s">
+      <c r="F66" s="38"/>
+      <c r="G66" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="53" t="s">
+    <row r="67">
+      <c r="B67" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="49"/>
+      <c r="D67" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="53" t="s">
+      <c r="E67" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="49"/>
+      <c r="G68" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="49"/>
+      <c r="G69" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="E849" scenarios="true" objects="true"/>
-  <mergeCells count="8">
+  <sheetProtection sheet="true" password="E23F" scenarios="true" objects="true"/>
+  <mergeCells count="15">
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="E66:F66"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9226,7 +9034,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J43"/>
+  <dimension ref="B20:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -9292,16 +9100,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>40</v>
@@ -9309,24 +9117,24 @@
       <c r="G22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56" t="n">
+      <c r="H22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="J22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>73</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>40</v>
@@ -9334,24 +9142,24 @@
       <c r="G23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H23" s="55" t="n">
+      <c r="H23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="54" t="s">
-        <v>79</v>
+      <c r="D24" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>40</v>
@@ -9359,24 +9167,24 @@
       <c r="G24" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H24" s="55" t="n">
+      <c r="H24" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>81</v>
+      <c r="D25" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>40</v>
@@ -9384,24 +9192,24 @@
       <c r="G25" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H25" s="55" t="n">
+      <c r="H25" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>88</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>40</v>
@@ -9409,24 +9217,24 @@
       <c r="G26" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H26" s="55" t="n">
+      <c r="H26" s="56"/>
+      <c r="I26" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>89</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>40</v>
@@ -9434,24 +9242,24 @@
       <c r="G27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H27" s="55" t="n">
+      <c r="H27" s="56"/>
+      <c r="I27" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
+      <c r="J27" s="58"/>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>40</v>
@@ -9459,386 +9267,11 @@
       <c r="G28" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H28" s="55" t="n">
+      <c r="H28" s="56"/>
+      <c r="I28" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H29" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H30" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H31" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H33" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H34" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H35" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H36" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H37" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H38" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H39" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H40" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H41" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="57"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H42" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H43" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
+      <c r="J28" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9855,7 +9288,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:I90"/>
+  <dimension ref="B20:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -9904,1099 +9337,394 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56" t="n">
+      <c r="D22" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="59" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C23" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+        <v>7.0</v>
+      </c>
+      <c r="D23" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E23" s="57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F23" s="58"/>
       <c r="G23" s="59" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C24" s="50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D24" s="55" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="59" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D25" s="55" t="n">
+      <c r="D25" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="59" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D26" s="55" t="n">
+      <c r="D26" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="59" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="C27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D27" s="55" t="n">
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="59" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C28" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D28" s="55" t="n">
+      <c r="D28" s="56"/>
+      <c r="E28" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="59" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C29" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D29" s="55" t="n">
+      <c r="D29" s="56"/>
+      <c r="E29" s="57" t="n">
         <v>1.0</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="59" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="59" t="s">
-        <v>119</v>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="59" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="59" t="s">
-        <v>119</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="59" t="s">
-        <v>119</v>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="59" t="s">
-        <v>119</v>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="59" t="s">
-        <v>119</v>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="59" t="s">
-        <v>119</v>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="59" t="s">
-        <v>119</v>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="59" t="s">
-        <v>119</v>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="59" t="s">
-        <v>119</v>
+        <v>93</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="59" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="59" t="s">
-        <v>119</v>
+        <v>95</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>23</v>
+    <row r="45">
+      <c r="B45" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="52" t="s">
+    <row r="46">
+      <c r="B46" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="C46" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="60" t="s">
+    <row r="47">
+      <c r="B47" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="I50" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I53" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I60" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I64" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="I65" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="I67" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I68" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I69" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I70" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="I71" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I74" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I78" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I82" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I84" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="I85" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I86" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="I87" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I88" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I89" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I90" s="58" t="s">
-        <v>48</v>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="13">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="B51:B70"/>
-    <mergeCell ref="C51:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11087,37 +9815,37 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="54" t="s">
-        <v>141</v>
+      <c r="D22" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="E22" s="50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="F22" s="55" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G22" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H22" s="57"/>
+        <v>7.0</v>
+      </c>
+      <c r="F22" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H22" s="58"/>
       <c r="I22" s="59" t="s">
         <v>71</v>
       </c>
       <c r="J22" s="50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="K22" s="55" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L22" s="56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="57"/>
+        <v>7.0</v>
+      </c>
+      <c r="K22" s="56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L22" s="57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M22" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11133,7 +9861,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -11164,20 +9892,47 @@
     </row>
     <row r="3">
       <c r="B3" s="52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>143</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="49"/>
+      <c r="C5" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="85AF" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="D399" scenarios="true" objects="true"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11235,13 +9990,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11261,13 +10016,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11307,13 +10062,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11392,26 +10147,28 @@
       <c r="A20" t="s" s="49">
         <v>72</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="50" t="n">
+        <v>4.0</v>
+      </c>
       <c r="C20" s="50" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" s="50"/>
       <c r="H20" t="s" s="49">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="49">
         <v>40</v>
       </c>
       <c r="J20" s="50" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="K20" s="50" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L20" s="50"/>
       <c r="P20" t="s" s="49">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q20" t="s" s="49">
         <v>40</v>
@@ -11422,8 +10179,57 @@
       </c>
       <c r="T20" s="50"/>
     </row>
+    <row r="21">
+      <c r="A21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="P21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="P22" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T22" s="50"/>
+    </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="50"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="135">
   <si>
     <t>Duration</t>
   </si>
@@ -229,111 +229,394 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Oct 07, 2025 12:16:06 PM</t>
-  </si>
-  <si>
-    <t>Oct 07, 2025 12:12:00 PM</t>
-  </si>
-  <si>
-    <t>Oct 07, 2025 12:16:04 PM</t>
-  </si>
-  <si>
-    <t>4 m 4.313 s</t>
+    <t>Oct 07, 2025 5:24:03 PM</t>
+  </si>
+  <si>
+    <t>Oct 07, 2025 5:06:31 PM</t>
+  </si>
+  <si>
+    <t>Oct 07, 2025 5:23:59 PM</t>
+  </si>
+  <si>
+    <t>17 m 27.693 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>57%</t>
+    <t>43%</t>
   </si>
   <si>
     <t>@sanity</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_FS_05</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_FS_06</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_FS_07</t>
-  </si>
-  <si>
-    <t>This is Footer Section feature</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</t>
-  </si>
-  <si>
-    <t>1 m 45.401 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</t>
-  </si>
-  <si>
-    <t>45.080 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</t>
-  </si>
-  <si>
-    <t>35.824 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</t>
-  </si>
-  <si>
-    <t>15.007 s</t>
-  </si>
-  <si>
-    <t>14.287 s</t>
-  </si>
-  <si>
-    <t>15.884 s</t>
-  </si>
-  <si>
-    <t>11.738 s</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_FS_01</t>
+    <t>@TC_UI_Zlaata_COP_07</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_08</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_09</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_10</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_11</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_12</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_13</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_14</t>
+  </si>
+  <si>
+    <t>CheckOut Page Feature</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</t>
+  </si>
+  <si>
+    <t>1 m 8.758 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_02 |Verify Display of Wishlist Button|"TD_UI_Zlaata_COP_02"</t>
+  </si>
+  <si>
+    <t>1 m 20.981 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_03 |Verify Display of Delete Button|"TD_UI_Zlaata_COP_03"</t>
+  </si>
+  <si>
+    <t>1 m 27.720 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_04 |Verify That User Can Change Product Size|"TD_UI_Zlaata_COP_04"</t>
+  </si>
+  <si>
+    <t>2 m 3.142 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_05 |Verify User Can Increase or Decrease Product Quantity|"TD_UI_Zlaata_COP_05"</t>
+  </si>
+  <si>
+    <t>1 m 37.949 s</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_06 |Verify User Can Add New Product|"TD_UI_Zlaata_COP_06"</t>
+  </si>
+  <si>
+    <t>35.509 s</t>
+  </si>
+  <si>
+    <t>1.410 s</t>
+  </si>
+  <si>
+    <t>1 m 31.899 s</t>
+  </si>
+  <si>
+    <t>3 m 35.079 s</t>
+  </si>
+  <si>
+    <t>49.312 s</t>
+  </si>
+  <si>
+    <t>47.275 s</t>
+  </si>
+  <si>
+    <t>49.334 s</t>
+  </si>
+  <si>
+    <t>49.035 s</t>
+  </si>
+  <si>
+    <t>49.021 s</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_01</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_FS_02</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_FS_03</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_FS_04</t>
-  </si>
-  <si>
-    <t>4 m 3.508 s</t>
-  </si>
-  <si>
-    <t>Given User enters a new valid email ID in the newsletter subscription field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;input type="text" placeholder="Enter your E-mail ID" id="subscribeletter" class="newsletter_input_field cls_email_signup" data-source="footer" oninput="cleanEmailInput(this);"&gt; is not clickable at point (683, 158). Other element would receive the click: &lt;ul class="navigation_menu_grp"&gt;...&lt;/ul&gt;
-  (Session info: chrome=140.0.7339.208)
+    <t>38%</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_02</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_03</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_04</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_05</t>
+  </si>
+  <si>
+    <t>@TC_UI_Zlaata_COP_06</t>
+  </si>
+  <si>
+    <t>17 m 26.814 s</t>
+  </si>
+  <si>
+    <t>stepDef.Hooks.preCondition(io.cucumber.java.Scenario)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.ArrayIndexOutOfBoundsException: Index 2 out of bounds for length 2
+	at stepDef.Hooks.preCondition(Hooks.java:99)
+</t>
+  </si>
+  <si>
+    <t>Given User Verifies That Adding New Product or Deleting Product Count Increases or Decreases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8f6e91ccb6282e4946f58b180c20acc1, clickElement {id=f.0C8BECF1BB93A8071DB2B621A8180A92.d.17A1E8F5EB9BFDF1267BB680647DE1BC.e.38}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61518}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61518/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (8f6e91ccb6282e4946f58b180c20acc1)] -&gt; id: subscribeletter]
-Session ID: 8f6e91ccb6282e4946f58b180c20acc1
+Command: [fd57c3b4cecde964109dd62753cef925, actions {actions=[org.openqa.selenium.interactions.Sequence@37b470df]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60188}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60188/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fd57c3b4cecde964109dd62753cef925
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$sie1Ja7p.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.verifyItemCountChanges(CheckoutPage.java:884)
+	at stepDef.CheckOutPageStepDef.user_verifies_that_adding_new_product_or_deleting_product_count_increases_or_decreases(CheckOutPageStepDef.java:89)
+	at ✽.User Verifies That Adding New Product or Deleting Product Count Increases or Decreases(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:76)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$sie1Ja7p.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+		at pages.CheckoutPage.verifyItemCountChanges(CheckoutPage.java:884)
+		at stepDef.CheckOutPageStepDef.user_verifies_that_adding_new_product_or_deleting_product_count_increases_or_decreases(CheckOutPageStepDef.java:89)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$sie1Ja7p.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.verifyItemCountChanges(CheckoutPage.java:884)
+	at stepDef.CheckOutPageStepDef.user_verifies_that_adding_new_product_or_deleting_product_count_increases_or_decreases(CheckOutPageStepDef.java:89)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
+  (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fd57c3b4cecde964109dd62753cef925, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60188}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60188/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fd57c3b4cecde964109dd62753cef925
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -345,8 +628,81 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor53.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$sie1Ja7p.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	... 89 more
+</t>
+  </si>
+  <si>
+    <t>Given User Verifies Checkout page calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.AssertionError: 'You Saved' mismatch! expected:&lt;-4925.0&gt; but was:&lt;75.0&gt;
+	at org.junit.Assert.fail(Assert.java:89)
+	at org.junit.Assert.failNotEquals(Assert.java:835)
+	at org.junit.Assert.assertEquals(Assert.java:555)
+	at pages.CheckoutPage.performCheckoutCalculationAndExcelLog(CheckoutPage.java:403)
+	at pages.CheckoutPage.verifyCheckoutCalculationsWithExcel(CheckoutPage.java:76)
+	at stepDef.CheckOutPageStepDef.user_verifies_checkout_page_calculation(CheckOutPageStepDef.java:24)
+	at ✽.User Verifies Checkout page calculation(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:85)
+</t>
+  </si>
+  <si>
+    <t>Given the user verifies that on the Checkout page the Accessories button, the Recently Viewed button, and the Top Selling button are all visible and clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3a5ba2f0de08a5e35597377b3517654f, actions {actions=[org.openqa.selenium.interactions.Sequence@4bc41565]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55414}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55414/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3a5ba2f0de08a5e35597377b3517654f
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
@@ -354,32 +710,181 @@
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$mu90m4X0.click(Unknown Source)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$tqAJPl4U.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.allButtonOnCheckoutPage(CheckoutPage.java:938)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_checkout_page_the_accessories_button_the_recently_viewed_button_and_the_top_selling_button_are_all_visible_and_clickable(CheckOutPageStepDef.java:96)
+	at ✽.the user verifies that on the Checkout page the Accessories button, the Recently Viewed button, and the Top Selling button are all visible and clickable(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:94)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$tqAJPl4U.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+		at pages.CheckoutPage.allButtonOnCheckoutPage(CheckoutPage.java:938)
+		at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_checkout_page_the_accessories_button_the_recently_viewed_button_and_the_top_selling_button_are_all_visible_and_clickable(CheckOutPageStepDef.java:96)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
-	at com.sun.proxy.$Proxy51.click(Unknown Source)
-	at basePage.BasePage.click(BasePage.java:78)
-	at pages.FooterPage.footerSubscribe(FooterPage.java:244)
-	at stepDef.FooterStepdef.user_enters_a_new_valid_email_id_in_the_newsletter_subscription_field(FooterStepdef.java:73)
-	at ✽.User enters a new valid email ID in the newsletter subscription field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/FooterSection/footer.feature:57)
-</t>
-  </si>
-  <si>
-    <t>Given User enters an already subscribed email ID in the newsletter subscription field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;input type="text" placeholder="Enter your E-mail ID" id="subscribeletter" class="newsletter_input_field cls_email_signup" data-source="footer" oninput="cleanEmailInput(this);"&gt; is not clickable at point (683, 158). Other element would receive the click: &lt;ul class="navigation_menu_grp"&gt;...&lt;/ul&gt;
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$tqAJPl4U.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.allButtonOnCheckoutPage(CheckoutPage.java:938)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_checkout_page_the_accessories_button_the_recently_viewed_button_and_the_top_selling_button_are_all_visible_and_clickable(CheckOutPageStepDef.java:96)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
   (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [21de8c4fb04de51dba1ad761b29df152, clickElement {id=f.29F3E190DC3693AACAA290879BF37CC7.d.D6ED5DD8FFE68855BB38437A32290530.e.30}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50689}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50689/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (21de8c4fb04de51dba1ad761b29df152)] -&gt; id: subscribeletter]
-Session ID: 21de8c4fb04de51dba1ad761b29df152
+Command: [3a5ba2f0de08a5e35597377b3517654f, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55414}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55414/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3a5ba2f0de08a5e35597377b3517654f
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -391,8 +896,67 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor53.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$tqAJPl4U.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	... 89 more
+</t>
+  </si>
+  <si>
+    <t>Given the user verifies that on the Checkout page, when an invalid gift card number is entered, a validation message is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7acd02f78b279468cf1fd15d4ec2e0f0, actions {actions=[org.openqa.selenium.interactions.Sequence@688efeb2]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55527}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55527/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7acd02f78b279468cf1fd15d4ec2e0f0
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
@@ -400,32 +964,181 @@
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$Vb1nwA9o.click(Unknown Source)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$0VQsDrze.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.enterInvalidGiftCardNumberCheckValidationMessage(CheckoutPage.java:1014)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_checkout_page_when_an_invalid_gift_card_number_is_entered_a_validation_message_is_displayed(CheckOutPageStepDef.java:102)
+	at ✽.the user verifies that on the Checkout page, when an invalid gift card number is entered, a validation message is displayed(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:103)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$0VQsDrze.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+		at pages.CheckoutPage.enterInvalidGiftCardNumberCheckValidationMessage(CheckoutPage.java:1014)
+		at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_checkout_page_when_an_invalid_gift_card_number_is_entered_a_validation_message_is_displayed(CheckOutPageStepDef.java:102)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
-	at com.sun.proxy.$Proxy51.click(Unknown Source)
-	at basePage.BasePage.click(BasePage.java:78)
-	at pages.FooterPage.footerSubscribeAlready(FooterPage.java:259)
-	at stepDef.FooterStepdef.user_enters_an_already_subscribed_email_id_in_the_newsletter_subscription_field(FooterStepdef.java:80)
-	at ✽.User enters an already subscribed email ID in the newsletter subscription field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/FooterSection/footer.feature:66)
-</t>
-  </si>
-  <si>
-    <t>Given User enters an invalid email ID in the newsletter subscription field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;input type="text" placeholder="Enter your E-mail ID" id="subscribeletter" class="newsletter_input_field cls_email_signup" data-source="footer" oninput="cleanEmailInput(this);"&gt; is not clickable at point (683, 158). Other element would receive the click: &lt;ul class="navigation_menu_grp"&gt;...&lt;/ul&gt;
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$0VQsDrze.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.enterInvalidGiftCardNumberCheckValidationMessage(CheckoutPage.java:1014)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_checkout_page_when_an_invalid_gift_card_number_is_entered_a_validation_message_is_displayed(CheckOutPageStepDef.java:102)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
   (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
 Build info: version: '4.34.0', revision: '707dcb4246*'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ad2c81899530b107d5e3eddd88fea311, clickElement {id=f.2F5A2158A311E70870B0C1AC132F89EE.d.CF79B2B6101A326307A39477025AA1F9.e.36}]
-Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57931}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57931/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (ad2c81899530b107d5e3eddd88fea311)] -&gt; id: subscribeletter]
-Session ID: ad2c81899530b107d5e3eddd88fea311
+Command: [7acd02f78b279468cf1fd15d4ec2e0f0, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55527}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55527/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7acd02f78b279468cf1fd15d4ec2e0f0
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
 	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
@@ -437,26 +1150,775 @@
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
 	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
 	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
-	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor53.invoke(Unknown Source)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
 	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
 	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
-	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$wbccNi35.click(Unknown Source)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$0VQsDrze.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	... 89 more
+</t>
+  </si>
+  <si>
+    <t>Given the user verifies that on the Gift Wrapping popup, the mandatory fields are left empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [821993d375f5e42ca8c13bbfa409f2c9, actions {actions=[org.openqa.selenium.interactions.Sequence@4ed19540]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61517}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61517/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 821993d375f5e42ca8c13bbfa409f2c9
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$RKqI1Lqt.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.verifyMandatoryFieldsInGiftWrapPopup(CheckoutPage.java:1051)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_gift_wrapping_popup_the_mandatory_fields_are_left_empty(CheckOutPageStepDef.java:108)
+	at ✽.the user verifies that on the Gift Wrapping popup, the mandatory fields are left empty(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:112)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$RKqI1Lqt.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+		at pages.CheckoutPage.verifyMandatoryFieldsInGiftWrapPopup(CheckoutPage.java:1051)
+		at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_gift_wrapping_popup_the_mandatory_fields_are_left_empty(CheckOutPageStepDef.java:108)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
+	at jdk.internal.reflect.GeneratedMethodAccessor93.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$RKqI1Lqt.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.verifyMandatoryFieldsInGiftWrapPopup(CheckoutPage.java:1051)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_gift_wrapping_popup_the_mandatory_fields_are_left_empty(CheckOutPageStepDef.java:108)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
 	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
 	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
 	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
-	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:51)
-	at com.sun.proxy.$Proxy51.click(Unknown Source)
-	at basePage.BasePage.click(BasePage.java:78)
-	at pages.FooterPage.invalidMail(FooterPage.java:271)
-	at stepDef.FooterStepdef.user_enters_an_invalid_email_id_in_the_newsletter_subscription_field(FooterStepdef.java:87)
-	at ✽.User enters an invalid email ID in the newsletter subscription field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/FooterSection/footer.feature:75)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
+  (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [821993d375f5e42ca8c13bbfa409f2c9, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61517}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61517/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 821993d375f5e42ca8c13bbfa409f2c9
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor53.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$RKqI1Lqt.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	... 87 more
+</t>
+  </si>
+  <si>
+    <t>Given the user verifies that on the Gift Wrapping popup, the user enters fewer characters for all fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6b95efed115b9135b8716bc7ec8a2f0d, actions {actions=[org.openqa.selenium.interactions.Sequence@68e094c9]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63044}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63044/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6b95efed115b9135b8716bc7ec8a2f0d
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$2fXYZsuR.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.verifyLessCharacterFieldsInGiftWrapPopup(CheckoutPage.java:1081)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_gift_wrapping_popup_the_user_enters_fewer_characters_for_all_fields(CheckOutPageStepDef.java:115)
+	at ✽.the user verifies that on the Gift Wrapping popup, the user enters fewer characters for all fields(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:121)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$2fXYZsuR.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+		at pages.CheckoutPage.verifyLessCharacterFieldsInGiftWrapPopup(CheckoutPage.java:1081)
+		at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_gift_wrapping_popup_the_user_enters_fewer_characters_for_all_fields(CheckOutPageStepDef.java:115)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
+	at jdk.internal.reflect.GeneratedMethodAccessor93.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$2fXYZsuR.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.verifyLessCharacterFieldsInGiftWrapPopup(CheckoutPage.java:1081)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_on_the_gift_wrapping_popup_the_user_enters_fewer_characters_for_all_fields(CheckOutPageStepDef.java:115)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
+  (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6b95efed115b9135b8716bc7ec8a2f0d, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63044}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63044/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6b95efed115b9135b8716bc7ec8a2f0d
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor53.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$2fXYZsuR.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	... 87 more
+</t>
+  </si>
+  <si>
+    <t>Given the user verifies that a valid gift card number is entered in the Gift Card field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0b437bb86af28e97249723e302d7c33a, actions {actions=[org.openqa.selenium.interactions.Sequence@30a4a111]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52440}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52440/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0b437bb86af28e97249723e302d7c33a
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$9H7BqEDc.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.entervalidGiftCardNumberCheckGiftCardAmount(CheckoutPage.java:1129)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_a_valid_gift_card_number_is_entered_in_the_gift_card_field(CheckOutPageStepDef.java:122)
+	at ✽.the user verifies that a valid gift card number is entered in the Gift Card field(file:///C:/Users/Sarojkumar/git/ZlaataQAsever/src/test/resources/features/CheckoutPage/checkoutPage.feature:130)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$9H7BqEDc.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+		at pages.CheckoutPage.entervalidGiftCardNumberCheckGiftCardAmount(CheckoutPage.java:1129)
+		at stepDef.CheckOutPageStepDef.the_user_verifies_that_a_valid_gift_card_number_is_entered_in_the_gift_card_field(CheckOutPageStepDef.java:122)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+		at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+		at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
+	at jdk.internal.reflect.GeneratedMethodAccessor93.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:183)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:177)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1801)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:484)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:474)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:150)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:173)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:497)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:661)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at jdk.internal.reflect.GeneratedMethodAccessor92.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$9H7BqEDc.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.buyNow(ProductDetailsPage.java:750)
+	at pages.CheckoutPage.entervalidGiftCardNumberCheckGiftCardAmount(CheckoutPage.java:1129)
+	at stepDef.CheckOutPageStepDef.the_user_verifies_that_a_valid_gift_card_number_is_entered_in_the_gift_card_field(CheckOutPageStepDef.java:122)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke0(Native Method)
+	at java.base/jdk.internal.reflect.NativeMethodAccessorImpl.invoke(NativeMethodAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
+  (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.28'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0b437bb86af28e97249723e302d7c33a, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\SAROJK~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52440}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52440/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0b437bb86af28e97249723e302d7c33a
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:62)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:490)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at jdk.internal.reflect.GeneratedMethodAccessor53.invoke(Unknown Source)
+	at java.base/jdk.internal.reflect.DelegatingMethodAccessorImpl.invoke(DelegatingMethodAccessorImpl.java:43)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:566)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$9H7BqEDc.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at com.sun.proxy.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	... 87 more
 </t>
   </si>
 </sst>
@@ -1074,31 +2536,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$23</c:f>
+              <c:f>'DB Data'!$A$20:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@TC_UI_Zlaata_COP_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>@TC_UI_Zlaata_COP_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>@TC_UI_Zlaata_COP_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>@TC_UI_Zlaata_COP_13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20:$B$23</c:f>
+              <c:f>'DB Data'!$B$20:$B$28</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,27 +2633,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$23</c:f>
+              <c:f>'DB Data'!$A$20:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@TC_UI_Zlaata_COP_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>@TC_UI_Zlaata_COP_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>@TC_UI_Zlaata_COP_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>@TC_UI_Zlaata_COP_13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20:$D$23</c:f>
+              <c:f>'DB Data'!$D$20:$D$28</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1233,31 +2725,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20:$A$23</c:f>
+              <c:f>'DB Data'!$A$20:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@TC_UI_Zlaata_COP_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>@TC_UI_Zlaata_COP_11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>@TC_UI_Zlaata_COP_12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>@TC_UI_Zlaata_COP_13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20:$C$23</c:f>
+              <c:f>'DB Data'!$C$20:$C$28</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
@@ -1266,6 +2773,21 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1482,7 +3004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Footer Section feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1493,7 +3015,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,7 +3076,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Footer Section feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1621,7 +3143,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Footer Section feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1632,7 +3154,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +4308,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Footer Section feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2797,7 +4319,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +4380,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Footer Section feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2925,7 +4447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Footer Section feature</c:v>
+                  <c:v>CheckOut Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2936,7 +4458,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,24 +4672,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$22</c:f>
+              <c:f>'DB Data'!$P$20:$P$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20:$R$22</c:f>
+              <c:f>'DB Data'!$R$20:$R$27</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3223,25 +4760,45 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$22</c:f>
+              <c:f>'DB Data'!$P$20:$P$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20:$T$22</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$T$20:$T$27</c:f>
+              <c:numCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3296,33 +4853,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$22</c:f>
+              <c:f>'DB Data'!$P$20:$P$27</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20:$S$22</c:f>
+              <c:f>'DB Data'!$S$20:$S$27</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4287,38 +5871,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$28</c:f>
+              <c:f>Scenarios!$B$22:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_02 |Verify Display of Wishlist Button|"TD_UI_Zlaata_COP_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_03 |Verify Display of Delete Button|"TD_UI_Zlaata_COP_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_04 |Verify That User Can Change Product Size|"TD_UI_Zlaata_COP_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_05 |Verify User Can Increase or Decrease Product Quantity|"TD_UI_Zlaata_COP_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_06 |Verify User Can Add New Product|"TD_UI_Zlaata_COP_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$28</c:f>
+              <c:f>Scenarios!$H$22:$H$35</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -4329,6 +5934,12 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4386,37 +5997,63 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$28</c:f>
+              <c:f>Scenarios!$B$22:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_02 |Verify Display of Wishlist Button|"TD_UI_Zlaata_COP_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_03 |Verify Display of Delete Button|"TD_UI_Zlaata_COP_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_04 |Verify That User Can Change Product Size|"TD_UI_Zlaata_COP_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_05 |Verify User Can Increase or Decrease Product Quantity|"TD_UI_Zlaata_COP_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_06 |Verify User Can Add New Product|"TD_UI_Zlaata_COP_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$28</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$J$22:$J$35</c:f>
+              <c:numCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4471,45 +6108,78 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$28</c:f>
+              <c:f>Scenarios!$B$22:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_FS_01 | Verify that Shop All footer links are clickable. | "TD_UI_Zlaata_FS_01"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_01 |Verify Bag Item Count Display|"TD_UI_Zlaata_COP_01"</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_FS_02 | Verify that the payment logo is displayed in the footer. | "TD_UI_Zlaata_FS_02"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_02 |Verify Display of Wishlist Button|"TD_UI_Zlaata_COP_02"</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_FS_03 | Verify that social media icons are displayed in the footer. | "TD_UI_Zlaata_FS_03"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_03 |Verify Display of Delete Button|"TD_UI_Zlaata_COP_03"</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_FS_04 | Verify that the Zlaata email ID is displayed in the footer. | "TD_UI_Zlaata_FS_04"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_04 |Verify That User Can Change Product Size|"TD_UI_Zlaata_COP_04"</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_FS_05 | Verify that user can subscribe to the newsletter with a valid new email ID | "TD_UI_Zlaata_FS_05"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_05 |Verify User Can Increase or Decrease Product Quantity|"TD_UI_Zlaata_COP_05"</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_FS_06 | Verify that user cannot subscribe to the newsletter using an already subscribed email ID | "TD_UI_Zlaata_FS_06"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_06 |Verify User Can Add New Product|"TD_UI_Zlaata_COP_06"</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_FS_07 | Verify that user cannot subscribe to the newsletter using an invalid email ID | "TD_UI_Zlaata_FS_07"</c:v>
+                  <c:v>TC_UI_Zlaata_COP_07 Verify That Adding Product to Bag Count is Displaying or Not Above Bag Icon|"TD_UI_Zlaata_COP_07"</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TC_UI_Zlaata_COP_08 |Verify That Adding New Product or Deleting Product Count Increases or Decreases|"TD_UI_Zlaata_COP_08"</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TC_UI_Zlaata_COP_09 |Verify Checkout page calculation|"TD_UI_Zlaata_COP_09"</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TC_UI_Zlaata_COP_10 |Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page| "TD_UI_Zlaata_COP_10"</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TC_UI_Zlaata_COP_11 | Verify Validation Message for Invalid Gift Card Number | "TD_UI_Zlaata_COP_11"</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TC_UI_Zlaata_COP_12 | Verify Validation Message in Gift Wrapping Popup when Mandatory Fields Are Not Entered | "TD_UI_Zlaata_COP_12"</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TC_UI_Zlaata_COP_13 |Verify Validation Message in Gift Wrapping Popup if the user enters fewer characters in Description or Sender Name| "TD_UI_Zlaata_COP_13"</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TC_UI_Zlaata_COP_14 | Verify Gift Card Balance Display when Correct Gift Card is Entered | "TD_UI_Zlaata_COP_14"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$28</c:f>
+              <c:f>Scenarios!$I$22:$I$35</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="4">
+                <c:ptCount val="14"/>
+                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4911,46 +6581,67 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$29</c:f>
+              <c:f>Tags!$B$22:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_FS_01</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_FS_02</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_FS_03</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_FS_04</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>@TC_UI_Zlaata_COP_08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>@TC_UI_Zlaata_COP_09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>@TC_UI_Zlaata_COP_10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>@TC_UI_Zlaata_COP_11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>@TC_UI_Zlaata_COP_12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>@TC_UI_Zlaata_COP_13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$29</c:f>
+              <c:f>Tags!$D$22:$D$36</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -4959,6 +6650,12 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5016,39 +6713,60 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$29</c:f>
+              <c:f>Tags!$B$22:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_FS_01</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_FS_02</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_FS_03</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_FS_04</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>@TC_UI_Zlaata_COP_08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>@TC_UI_Zlaata_COP_09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>@TC_UI_Zlaata_COP_10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>@TC_UI_Zlaata_COP_11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>@TC_UI_Zlaata_COP_12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>@TC_UI_Zlaata_COP_13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$29</c:f>
+              <c:f>Tags!$F$22:$F$36</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -5104,51 +6822,87 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$29</c:f>
+              <c:f>Tags!$B$22:$B$36</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_FS_01</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>@sanity</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>@TC_UI_Zlaata_FS_02</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_FS_03</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_FS_04</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_FS_05</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_FS_06</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_FS_07</c:v>
+                  <c:v>@TC_UI_Zlaata_COP_07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>@TC_UI_Zlaata_COP_08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>@TC_UI_Zlaata_COP_09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>@TC_UI_Zlaata_COP_10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>@TC_UI_Zlaata_COP_11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>@TC_UI_Zlaata_COP_12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>@TC_UI_Zlaata_COP_13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>@TC_UI_Zlaata_COP_14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$29</c:f>
+              <c:f>Tags!$E$22:$E$36</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5292,13 +7046,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5324,13 +7078,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8812,7 +10566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G69"/>
+  <dimension ref="B19:G84"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8856,12 +10610,12 @@
         <v>73</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G39" s="53" t="s">
         <v>40</v>
@@ -8872,12 +10626,12 @@
         <v>72</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
       <c r="F40" s="52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G40" s="53" t="s">
         <v>40</v>
@@ -8889,7 +10643,7 @@
       <c r="D41" s="49"/>
       <c r="E41" s="49"/>
       <c r="F41" s="52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G41" s="53" t="s">
         <v>40</v>
@@ -8901,129 +10655,339 @@
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
       <c r="F42" s="52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G42" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
       <c r="F43" s="52" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
       <c r="F44" s="52" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+    <row r="45">
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="65" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B65" s="7" t="s">
+    <row r="46">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="75" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="36" t="s">
+    <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="8" t="s">
+      <c r="C76" s="38"/>
+      <c r="D76" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E76" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="8" t="s">
+      <c r="F76" s="38"/>
+      <c r="G76" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="53" t="s">
+    <row r="77">
+      <c r="B77" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="49"/>
+      <c r="D77" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="53" t="s">
+      <c r="E77" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="49"/>
+      <c r="G77" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="53" t="s">
+    <row r="78">
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="49"/>
+      <c r="G78" s="53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="53" t="s">
+    <row r="79">
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="49"/>
+      <c r="G80" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="49"/>
+      <c r="G81" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="49"/>
+      <c r="G82" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="49"/>
+      <c r="G83" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="49"/>
+      <c r="G84" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="E23F" scenarios="true" objects="true"/>
-  <mergeCells count="15">
+  <sheetProtection sheet="true" password="969B" scenarios="true" objects="true"/>
+  <mergeCells count="25">
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="E76:F76"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="B77:C84"/>
+    <mergeCell ref="D77:D84"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9034,7 +10998,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J28"/>
+  <dimension ref="B20:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -9100,16 +11064,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="51" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>76</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>40</v>
@@ -9125,16 +11089,16 @@
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C23" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>40</v>
@@ -9150,16 +11114,16 @@
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C24" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>40</v>
@@ -9175,16 +11139,16 @@
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>40</v>
@@ -9200,16 +11164,16 @@
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>40</v>
@@ -9217,24 +11181,24 @@
       <c r="G26" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57" t="n">
+      <c r="H26" s="56" t="n">
         <v>1.0</v>
       </c>
+      <c r="I26" s="57"/>
       <c r="J26" s="58"/>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>40</v>
+        <v>100</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>40</v>
@@ -9242,24 +11206,24 @@
       <c r="G27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57" t="n">
+      <c r="H27" s="56" t="n">
         <v>1.0</v>
       </c>
+      <c r="I27" s="57"/>
       <c r="J27" s="58"/>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>40</v>
@@ -9268,10 +11232,185 @@
         <v>1.0</v>
       </c>
       <c r="H28" s="56"/>
-      <c r="I28" s="57" t="n">
+      <c r="I28" s="57"/>
+      <c r="J28" s="58" t="n">
         <v>1.0</v>
       </c>
-      <c r="J28" s="58"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="58"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="58"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="58"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J32" s="58"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9288,7 +11427,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:I47"/>
+  <dimension ref="B20:I67"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -9337,7 +11476,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>1.0</v>
@@ -9348,7 +11487,7 @@
       <c r="E22" s="57"/>
       <c r="F22" s="58"/>
       <c r="G22" s="59" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -9356,22 +11495,22 @@
         <v>72</v>
       </c>
       <c r="C23" s="50" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="D23" s="56" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E23" s="57" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="59" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="51" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>1.0</v>
@@ -9382,12 +11521,12 @@
       <c r="E24" s="57"/>
       <c r="F24" s="58"/>
       <c r="G24" s="59" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="51" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>1.0</v>
@@ -9398,12 +11537,12 @@
       <c r="E25" s="57"/>
       <c r="F25" s="58"/>
       <c r="G25" s="59" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="51" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>1.0</v>
@@ -9414,44 +11553,44 @@
       <c r="E26" s="57"/>
       <c r="F26" s="58"/>
       <c r="G26" s="59" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="51" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C27" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57" t="n">
+      <c r="D27" s="56" t="n">
         <v>1.0</v>
       </c>
+      <c r="E27" s="57"/>
       <c r="F27" s="58"/>
       <c r="G27" s="59" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C28" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57" t="n">
+      <c r="D28" s="56" t="n">
         <v>1.0</v>
       </c>
+      <c r="E28" s="57"/>
       <c r="F28" s="58"/>
       <c r="G28" s="59" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="50" t="n">
         <v>1.0</v>
@@ -9465,266 +11604,595 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>23</v>
+    <row r="30">
+      <c r="B30" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="C34" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>48</v>
+        <v>79</v>
+      </c>
+      <c r="C35" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="54" t="s">
-        <v>48</v>
+      <c r="B36" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="53" t="s">
-        <v>40</v>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="D41" s="49"/>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
-      <c r="H41" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="53" t="s">
-        <v>40</v>
+      <c r="H41" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="51" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
       <c r="H42" s="60" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I42" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
       <c r="H43" s="60" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I43" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
       <c r="H44" s="60" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I44" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
-      <c r="H45" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>40</v>
+      <c r="H45" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="49"/>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
       <c r="G46" s="49"/>
-      <c r="H46" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="53" t="s">
-        <v>40</v>
+      <c r="H46" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="49"/>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
       <c r="G47" s="49"/>
       <c r="H47" s="52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I47" s="53" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="48">
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I66" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="C42:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9815,37 +12283,39 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E22" s="50" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="F22" s="56" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="H22" s="58"/>
       <c r="I22" s="59" t="s">
         <v>71</v>
       </c>
       <c r="J22" s="50" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K22" s="56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L22" s="57" t="n">
         <v>7.0</v>
       </c>
-      <c r="K22" s="56" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L22" s="57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M22" s="58"/>
+      <c r="M22" s="58" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9861,7 +12331,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -9892,46 +12362,106 @@
     </row>
     <row r="3">
       <c r="B3" s="52" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="49"/>
       <c r="C4" s="52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="49"/>
       <c r="C5" s="52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>102</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="49"/>
+      <c r="C6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="49"/>
+      <c r="C7" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="49"/>
+      <c r="C8" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="49"/>
+      <c r="C9" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="49"/>
+      <c r="C10" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="D399" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="8639" scenarios="true" objects="true"/>
   <mergeCells count="1">
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9990,13 +12520,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10016,13 +12546,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10043,7 +12573,9 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -10062,13 +12594,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10148,36 +12680,36 @@
         <v>72</v>
       </c>
       <c r="B20" s="50" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" s="50" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" s="50"/>
       <c r="H20" t="s" s="49">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="49">
         <v>40</v>
       </c>
       <c r="J20" s="50" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="K20" s="50" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="L20" s="50"/>
       <c r="P20" t="s" s="49">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q20" t="s" s="49">
         <v>40</v>
       </c>
       <c r="R20" s="50"/>
-      <c r="S20" s="50" t="n">
+      <c r="S20" s="50"/>
+      <c r="T20" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="50"/>
     </row>
     <row r="21">
       <c r="A21" s="49" t="s">
@@ -10189,7 +12721,7 @@
       </c>
       <c r="D21" s="50"/>
       <c r="P21" s="49" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="49" t="s">
         <v>40</v>
@@ -10210,7 +12742,7 @@
       </c>
       <c r="D22" s="50"/>
       <c r="P22" s="49" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="49" t="s">
         <v>40</v>
@@ -10230,9 +12762,111 @@
         <v>1.0</v>
       </c>
       <c r="D23" s="50"/>
+      <c r="P23" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="P24" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T24" s="50"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="P25" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T25" s="50"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="P26" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T26" s="50"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="P27" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>

--- a/reports/Extent-Report/Zlaata-QAResults.xlsx
+++ b/reports/Extent-Report/Zlaata-QAResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>Duration</t>
   </si>
@@ -229,238 +229,275 @@
     <t>DEVICE NAME</t>
   </si>
   <si>
-    <t>Oct 06, 2025 5:05:35 PM</t>
+    <t>Oct 07, 2025 4:01:43 pm</t>
   </si>
   <si>
-    <t>Oct 06, 2025 5:01:17 PM</t>
+    <t>Oct 07, 2025 4:00:52 pm</t>
   </si>
   <si>
-    <t>Oct 06, 2025 5:05:33 PM</t>
+    <t>Oct 07, 2025 4:01:42 pm</t>
   </si>
   <si>
-    <t>4 m 16.301 s</t>
+    <t>49.079 s</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_01</t>
-  </si>
-  <si>
-    <t>This is Negative SignUp feature</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</t>
-  </si>
-  <si>
-    <t>3.841 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</t>
-  </si>
-  <si>
-    <t>12.628 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</t>
-  </si>
-  <si>
-    <t>19.104 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</t>
-  </si>
-  <si>
-    <t>9.365 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</t>
-  </si>
-  <si>
-    <t>14.076 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</t>
-  </si>
-  <si>
-    <t>15.957 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</t>
-  </si>
-  <si>
-    <t>8.820 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</t>
-  </si>
-  <si>
-    <t>12.383 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</t>
-  </si>
-  <si>
-    <t>11.717 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</t>
-  </si>
-  <si>
-    <t>9.856 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</t>
-  </si>
-  <si>
-    <t>13.048 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</t>
-  </si>
-  <si>
-    <t>14.994 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</t>
-  </si>
-  <si>
-    <t>7.061 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</t>
-  </si>
-  <si>
-    <t>7.138 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</t>
-  </si>
-  <si>
-    <t>8.260 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</t>
-  </si>
-  <si>
-    <t>14.293 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</t>
-  </si>
-  <si>
-    <t>8.456 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</t>
-  </si>
-  <si>
-    <t>13.997 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</t>
-  </si>
-  <si>
-    <t>15.452 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</t>
-  </si>
-  <si>
-    <t>5.966 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</t>
-  </si>
-  <si>
-    <t>17.869 s</t>
-  </si>
-  <si>
-    <t>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</t>
-  </si>
-  <si>
-    <t>10.781 s</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_02</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>@TC_UI_Zlaata_PDP_02</t>
   </si>
   <si>
     <t>@sanity</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_03</t>
+    <t>Product Details Page Feature</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_04</t>
+    <t>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_05</t>
+    <t>48.299 s</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_06</t>
+    <t>48.303 s</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_07</t>
+    <t>Given User Verifies Discount price calculating  on Product details page #excel need to update</t>
   </si>
   <si>
-    <t>@TC_UI_Zlaata_Signup_08</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_09</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_10</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_11</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_12</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_13</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_14</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_15</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_16</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_17</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_18</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_19</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_20</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_21</t>
-  </si>
-  <si>
-    <t>@TC_UI_Zlaata_Signup_22</t>
-  </si>
-  <si>
-    <t>4 m 15.401 s</t>
-  </si>
-  <si>
-    <t>Given User Signup with all valid data</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.6'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [44747111158797df6b4b629c17d3cf56, actions {actions=[org.openqa.selenium.interactions.Sequence@2fb082ff]}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\GOWTHA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52289}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52289/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 44747111158797df6b4b629c17d3cf56
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:362)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:184)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:179)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1939)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:509)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:499)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:151)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:174)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:596)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:733)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$08mc76d4.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.discountPercentageCalculation(ProductDetailsPage.java:113)
+	at stepDef.ProductDetailsStepDef.user_verifies_discount_price_calculating_on_product_details_page_excel_need_to_update(ProductDetailsStepDef.java:34)
+	at ✽.User Verifies Discount price calculating  on Product details page #excel need to update(file:///C:/Users/gowthamraj/git/ZlaataQAsever/src/test/resources/features/ProductDetailsPage/productDeatils.feature:22)
+	Suppressed: org.openqa.selenium.json.JsonException: Attempting to close incomplete json stream
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.6'
+Driver info: driver.version: RemoteWebDriver
+		at org.openqa.selenium.json.JsonOutput.close(JsonOutput.java:303)
+		at org.openqa.selenium.json.Json.toJson(Json.java:40)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+		at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+		at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+		at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+		at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+		at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+		at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+		at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+		at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+		at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$08mc76d4.perform(Unknown Source)
+		at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+		at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+		at pages.ProductDetailsPage.discountPercentageCalculation(ProductDetailsPage.java:113)
+		at stepDef.ProductDetailsStepDef.user_verifies_discount_price_calculating_on_product_details_page_excel_need_to_update(ProductDetailsStepDef.java:34)
+		at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+		at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+		at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+		at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+		at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+		at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+		at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+		at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+		at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+		at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+		at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+		at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+		at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+		at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+		at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+		at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+		at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+		at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+		at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+		at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+		at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+		at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+		at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+		at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+		at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+		at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+		at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+		at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+		at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: java.lang.reflect.InvocationTargetException
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:118)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.json.JsonOutput.convertUsingMethod(JsonOutput.java:358)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$16(JsonOutput.java:154)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$22(JsonOutput.java:169)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.accept(ForEachOps.java:184)
+	at java.base/java.util.stream.ReferencePipeline$2$1.accept(ReferencePipeline.java:179)
+	at java.base/java.util.Iterator.forEachRemaining(Iterator.java:133)
+	at java.base/java.util.Spliterators$IteratorSpliterator.forEachRemaining(Spliterators.java:1939)
+	at java.base/java.util.stream.AbstractPipeline.copyInto(AbstractPipeline.java:509)
+	at java.base/java.util.stream.AbstractPipeline.wrapAndCopyInto(AbstractPipeline.java:499)
+	at java.base/java.util.stream.ForEachOps$ForEachOp.evaluateSequential(ForEachOps.java:151)
+	at java.base/java.util.stream.ForEachOps$ForEachOp$OfRef.evaluateSequential(ForEachOps.java:174)
+	at java.base/java.util.stream.AbstractPipeline.evaluate(AbstractPipeline.java:234)
+	at java.base/java.util.stream.ReferencePipeline.forEach(ReferencePipeline.java:596)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$23(JsonOutput.java:169)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$24(JsonOutput.java:182)
+	at java.base/java.util.Map.forEach(Map.java:733)
+	at org.openqa.selenium.json.JsonOutput.lambda$new$25(JsonOutput.java:177)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:287)
+	at org.openqa.selenium.json.JsonOutput.write(JsonOutput.java:278)
+	at org.openqa.selenium.json.Json.toJson(Json.java:42)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:236)
+	at org.openqa.selenium.remote.codec.AbstractHttpCommandCodec.encode(AbstractHttpCommandCodec.java:109)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:203)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.RemoteWebDriver.perform(RemoteWebDriver.java:630)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$08mc76d4.perform(Unknown Source)
+	at org.openqa.selenium.interactions.Actions$BuiltAction.perform(Actions.java:616)
+	at pages.ProductDetailsPage.RandomProduct(ProductDetailsPage.java:43)
+	at pages.ProductDetailsPage.discountPercentageCalculation(ProductDetailsPage.java:113)
+	at stepDef.ProductDetailsStepDef.user_verifies_discount_price_calculating_on_product_details_page_excel_need_to_update(ProductDetailsStepDef.java:34)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at io.cucumber.java.Invoker.doInvoke(Invoker.java:66)
+	at io.cucumber.java.Invoker.invoke(Invoker.java:24)
+	at io.cucumber.java.AbstractGlueDefinition.invokeMethod(AbstractGlueDefinition.java:47)
+	at io.cucumber.java.JavaStepDefinition.execute(JavaStepDefinition.java:29)
+	at io.cucumber.core.runner.CoreStepDefinition.execute(CoreStepDefinition.java:66)
+	at io.cucumber.core.runner.PickleStepDefinitionMatch.runStep(PickleStepDefinitionMatch.java:63)
+	at io.cucumber.core.runner.ExecutionMode$1.execute(ExecutionMode.java:10)
+	at io.cucumber.core.runner.TestStep.executeStep(TestStep.java:92)
+	at io.cucumber.core.runner.TestStep.run(TestStep.java:64)
+	at io.cucumber.core.runner.PickleStepTestStep.run(PickleStepTestStep.java:51)
+	at io.cucumber.core.runner.TestCase.run(TestCase.java:104)
+	at io.cucumber.core.runner.Runner.runPickle(Runner.java:71)
+	at io.cucumber.junit.PickleRunners$NoStepDescriptions.run(PickleRunners.java:151)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:135)
+	at io.cucumber.junit.FeatureRunner.runChild(FeatureRunner.java:27)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:199)
+	at io.cucumber.junit.Cucumber.runChild(Cucumber.java:90)
+	at org.junit.runners.ParentRunner$4.run(ParentRunner.java:331)
+	at org.junit.runners.ParentRunner$1.schedule(ParentRunner.java:79)
+	at org.junit.runners.ParentRunner.runChildren(ParentRunner.java:329)
+	at org.junit.runners.ParentRunner.access$100(ParentRunner.java:66)
+	at org.junit.runners.ParentRunner$2.evaluate(ParentRunner.java:293)
+	at io.cucumber.junit.Cucumber$RunCucumber.evaluate(Cucumber.java:234)
+	at org.junit.internal.runners.statements.RunAfters.evaluate(RunAfters.java:27)
+	at org.junit.runners.ParentRunner$3.evaluate(ParentRunner.java:306)
+	at org.junit.runners.ParentRunner.run(ParentRunner.java:413)
+	at org.eclipse.jdt.internal.junit4.runner.JUnit4TestReference.run(JUnit4TestReference.java:93)
+	at org.eclipse.jdt.internal.junit.runner.TestExecution.run(TestExecution.java:40)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:520)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.runTests(RemoteTestRunner.java:748)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.run(RemoteTestRunner.java:443)
+	at org.eclipse.jdt.internal.junit.runner.RemoteTestRunner.main(RemoteTestRunner.java:211)
+Caused by: org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='filter_sort_btn_wrap']"}
+  (Session info: chrome=140.0.7339.208)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.34.0', revision: '707dcb4246*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.6'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [44747111158797df6b4b629c17d3cf56, findElement {value=//div[@class='filter_sort_btn_wrap'], using=xpath}]
+Capabilities {acceptInsecureCerts: true, browserName: chrome, browserVersion: 140.0.7339.208, chrome: {chromedriverVersion: 140.0.7339.207 (17230b545fd..., userDataDir: C:\Users\GOWTHA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52289}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52289/devtoo..., se:cdpVersion: 140.0.7339.208, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 44747111158797df6b4b629c17d3cf56
+	at java.base/jdk.internal.reflect.DirectConstructorHandleAccessor.newInstance(DirectConstructorHandleAccessor.java:62)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:502)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:486)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:544)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:367)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:361)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	at java.base/java.lang.reflect.Method.invoke(Method.java:580)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.call(WebDriverDecorator.java:315)
+	at org.openqa.selenium.support.decorators.DefaultDecorated.call(DefaultDecorated.java:48)
+	at org.openqa.selenium.support.decorators.WebDriverDecorator.lambda$createProxyFactory$3(WebDriverDecorator.java:405)
+	at net.bytebuddy.renamed.java.lang.Object$ByteBuddy$08mc76d4.findElement(Unknown Source)
+	at org.openqa.selenium.support.pagefactory.DefaultElementLocator.findElement(DefaultElementLocator.java:68)
+	at org.openqa.selenium.support.pagefactory.internal.LocatingElementHandler.invoke(LocatingElementHandler.java:38)
+	at jdk.proxy2/jdk.proxy2.$Proxy50.getWrappedElement(Unknown Source)
+	at org.openqa.selenium.interactions.PointerInput$Origin.asArg(PointerInput.java:262)
+	at org.openqa.selenium.interactions.PointerInput$Move.encode(PointerInput.java:211)
+	at org.openqa.selenium.interactions.Sequence.encode(Sequence.java:74)
+	at org.openqa.selenium.interactions.Sequence.toJson(Sequence.java:83)
+	at java.base/jdk.internal.reflect.DirectMethodHandleAccessor.invoke(DirectMethodHandleAccessor.java:103)
+	... 81 more
+</t>
   </si>
 </sst>
 </file>
@@ -468,7 +505,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,18 +659,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -791,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -931,13 +957,7 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,18 +1097,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@sanity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$B$20</c:f>
+              <c:f>'DB Data'!$B$20:$B$21</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1145,18 +1168,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@sanity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$D$20</c:f>
+              <c:f>'DB Data'!$D$20:$D$21</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1213,21 +1239,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$A$20</c:f>
+              <c:f>'DB Data'!$A$20:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>@sanity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$C$20</c:f>
+              <c:f>'DB Data'!$C$20:$C$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1444,7 +1476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>Product Details Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1452,12 +1484,7 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>21.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1516,7 +1543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>Product Details Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1583,7 +1610,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>Product Details Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2748,7 +2775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>Product Details Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2756,12 +2783,7 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$J$20</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>21.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2820,7 +2842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>Product Details Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2887,7 +2909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>This is Negative SignUp feature</c:v>
+                  <c:v>Product Details Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3116,7 +3138,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,7 +3205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3250,7 +3272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
+                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4225,147 +4247,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$43</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
+                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$43</c:f>
-              <c:numCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Scenarios!$H$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4420,81 +4314,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$43</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
+                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$43</c:f>
+              <c:f>Scenarios!$J$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4550,83 +4381,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$43</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TC_UI_Zlaata_Signup_01 | User  signup scenario |"TD_UI_Zlaata_Signup_01"</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TC_UI_Zlaata_Signup_02 | User left name field Empty |"TD_UI_Zlaata_Signup_02"</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TC_UI_Zlaata_Signup_03 | User left phone number field Empty |"TD_UI_Zlaata_Signup_03"</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>TC_UI_Zlaata_Signup_04 | User entered name with less than three characters |"TD_UI_Zlaata_Signup_04"</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TC_UI_Zlaata_Signup_05 | User entered phone number with less than 10 digits |"TD_UI_Zlaata_Signup_05"</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TC_UI_Zlaata_Signup_06 | User entered email with less than 3 characters |"TD_UI_Zlaata_Signup_06"</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>TC_UI_Zlaata_Signup_07 | User entered name with more than 50 characters |"TD_UI_Zlaata_Signup_07"</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TC_UI_Zlaata_Signup_08 | User entered phone number with more than 10 digits |"TD_UI_Zlaata_Signup_08"</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TC_UI_Zlaata_Signup_09 | User entered email with more than 50 characters |"TD_UI_Zlaata_Signup_09"</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TC_UI_Zlaata_Signup_10| User entered email in an invalid format |"TD_UI_Zlaata_Signup_10"</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TC_UI_Zlaata_Signup_11 | User entered phone number with non-numeric characters |"TD_UI_Zlaata_Signup_11"</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TC_UI_Zlaata_Signup_12 | User entered name with special characters |"TD_UI_Zlaata_Signup_12"</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TC_UI_Zlaata_Signup_13 | User entered the same phone number as twice |"TD_UI_Zlaata_Signup_13"</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TC_UI_Zlaata_Signup_14 | User entered phone number starting with 1,2,3,4,5 |"TD_UI_Zlaata_Signup_14"</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TC_UI_Zlaata_Signup_15 | User entered name with numeric characters |"TD_UI_Zlaata_Signup_15"</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TC_UI_Zlaata_Signup_16 | User entered phone number with invalid characters |"TD_UI_Zlaata_Signup_16"</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TC_UI_Zlaata_Signup_17 | User entered email with invalid domain (e.g., missing "@" or incorrect domain) |"TD_UI_Zlaata_Signup_17"</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TC_UI_Zlaata_Signup_18 | User entered email with multiple '@' symbols |"TD_UI_Zlaata_Signup_18"</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TC_UI_Zlaata_Signup_19 | User entered name with mixed case and special characters |"TD_UI_Zlaata_Signup_19"</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TC_UI_Zlaata_Signup_20 | User left all required fields empty (email is optional) |"TD_UI_Zlaata_Signup_20"</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TC_UI_Zlaata_Signup_21 | User enters invalid OTP |"TD_UI_Zlaata_Signup_21"</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TC_UI_Zlaata_Signup_22 | User enters already verified mail |"TD_UI_Zlaata_Signup_22"</c:v>
+                  <c:v>TC_UI_Zlaata_PDP_02 | Verify  Discounted Price Calculating on Product details page | "TD_UI_Zlaata_PDP_02"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$43</c:f>
+              <c:f>Scenarios!$I$22</c:f>
               <c:numCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -5029,153 +4797,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$44</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>@sanity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$44</c:f>
-              <c:numCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Tags!$D$22:$D$23</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5230,84 +4867,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$44</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>@sanity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$44</c:f>
+              <c:f>Tags!$F$22:$F$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -5363,87 +4937,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$44</c:f>
+              <c:f>Tags!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>@TC_UI_Zlaata_Signup_01</c:v>
+                  <c:v>@TC_UI_Zlaata_PDP_02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>@TC_UI_Zlaata_Signup_02</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>@sanity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>@TC_UI_Zlaata_Signup_03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>@TC_UI_Zlaata_Signup_04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>@TC_UI_Zlaata_Signup_05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>@TC_UI_Zlaata_Signup_06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>@TC_UI_Zlaata_Signup_07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>@TC_UI_Zlaata_Signup_08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>@TC_UI_Zlaata_Signup_09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>@TC_UI_Zlaata_Signup_10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>@TC_UI_Zlaata_Signup_11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>@TC_UI_Zlaata_Signup_12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>@TC_UI_Zlaata_Signup_13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>@TC_UI_Zlaata_Signup_14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>@TC_UI_Zlaata_Signup_15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>@TC_UI_Zlaata_Signup_16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>@TC_UI_Zlaata_Signup_17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>@TC_UI_Zlaata_Signup_18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>@TC_UI_Zlaata_Signup_19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>@TC_UI_Zlaata_Signup_20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>@TC_UI_Zlaata_Signup_21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>@TC_UI_Zlaata_Signup_22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$44</c:f>
+              <c:f>Tags!$E$22:$E$23</c:f>
               <c:numCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5587,13 +5101,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5619,13 +5133,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9107,7 +8621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G62"/>
+  <dimension ref="B19:G63"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9148,7 +8662,7 @@
     </row>
     <row r="39">
       <c r="B39" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>73</v>
@@ -9162,60 +8676,77 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+    <row r="40">
+      <c r="B40" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="60" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
+    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="61" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="36" t="s">
+    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="8" t="s">
+      <c r="C62" s="38"/>
+      <c r="D62" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E62" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="38"/>
-      <c r="G61" s="8" t="s">
+      <c r="F62" s="38"/>
+      <c r="G62" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" s="52" t="s">
+    <row r="63">
+      <c r="B63" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="53" t="s">
+      <c r="C63" s="49"/>
+      <c r="D63" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E63" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="53" t="s">
+      <c r="F63" s="49"/>
+      <c r="G63" s="53" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="E849" scenarios="true" objects="true"/>
-  <mergeCells count="8">
+  <sheetProtection sheet="true" password="C82D" scenarios="true" objects="true"/>
+  <mergeCells count="9">
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C39:E39"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9226,7 +8757,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B20:J43"/>
+  <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -9315,531 +8846,6 @@
       </c>
       <c r="J22" s="57"/>
     </row>
-    <row r="23">
-      <c r="B23" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H24" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H25" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H26" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H27" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H28" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H29" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H30" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H31" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H33" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H34" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H35" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H36" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H37" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H38" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H39" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H40" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H41" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="57"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H42" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H43" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G20:J20"/>
@@ -9855,7 +8861,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B20:I90"/>
+  <dimension ref="B20:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -9904,7 +8910,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>1.0</v>
@@ -9914,1089 +8920,87 @@
         <v>1.0</v>
       </c>
       <c r="F22" s="57"/>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="51" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="55" t="n">
+      <c r="D23" s="55"/>
+      <c r="E23" s="56" t="n">
         <v>1.0</v>
       </c>
-      <c r="E23" s="56"/>
       <c r="F23" s="57"/>
-      <c r="G23" s="59" t="s">
-        <v>119</v>
+      <c r="G23" s="58" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D24" s="55" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="59" t="s">
-        <v>119</v>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="59" t="s">
-        <v>119</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C29" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="52" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="I29" s="53" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I53" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I56" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I60" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I64" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="I65" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="I67" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I68" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I69" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I70" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="I71" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I72" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="I74" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I78" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I82" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I83" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I84" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="I85" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I86" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="I87" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I88" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I89" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I90" s="58" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="6">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="B51:B70"/>
-    <mergeCell ref="C51:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11093,27 +9097,23 @@
         <v>40</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E22" s="50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="F22" s="55" t="n">
-        <v>21.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="55"/>
       <c r="G22" s="56" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" s="57"/>
-      <c r="I22" s="59" t="s">
-        <v>71</v>
+      <c r="I22" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="J22" s="50" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="K22" s="55" t="n">
-        <v>21.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="55"/>
       <c r="L22" s="56" t="n">
         <v>1.0</v>
       </c>
@@ -11170,14 +9170,14 @@
         <v>74</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="85AF" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="E745" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11234,15 +9234,11 @@
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>21.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="H2" t="n" s="0">
-        <v>21.0</v>
-      </c>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
@@ -11307,13 +9303,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11327,10 +9323,10 @@
         <v>70</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -11390,7 +9386,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="49">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50" t="n">
@@ -11403,9 +9399,7 @@
       <c r="I20" t="s" s="49">
         <v>40</v>
       </c>
-      <c r="J20" s="50" t="n">
-        <v>21.0</v>
-      </c>
+      <c r="J20" s="50"/>
       <c r="K20" s="50" t="n">
         <v>1.0</v>
       </c>
@@ -11421,6 +9415,16 @@
         <v>1.0</v>
       </c>
       <c r="T20" s="50"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="50"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
